--- a/data/hotels_by_city/Dallas/Dallas_shard_367.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_367.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jessica h</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This is a good hotel for staying at if you are attending the TMS NASCAR race. We booked early and got a good deal. The staff was friendly and it looks as if the hotel was recently updated. The pool and hot tub are open 24 hours so that was nice we could go late. It is a good area right off I-35 and is safe. The rooms are clean and comfortable. Lots of good lighting. We ate some breakfast and it was good. I would stay here again.More</t>
   </si>
   <si>
+    <t>WW2781</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r569557754-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
     <t>Excellent value for the price and the hotel pool being open 24 hrs was awesome.  We didn’t go terribly late but it was nice to know we could have.  The breakfast was good and the staff was friendly. The room slept 6 and was very neat and clean.More</t>
   </si>
   <si>
+    <t>saprinter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r550038526-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,6 +282,9 @@
     <t>We stayed here because we were going to be traveling with a grand child and they website said they had a kids pool. They do not and the pool was kept at a temperature that is too cold to swim. The free breakfast was garbage. The bread for toast had to have passed its use by date a week ago. My wife asked for some fresh and what they brought her was rock hard and smelled funny. We had to change rooms at 10 pm because the toilet wouldn't flush. It had to be shut off at the wall because it was running constantly and was flooding. The toilet in the replacement room runs constantly. For the inconvenience they gave us 500 of their points which is really useless for us since it takes 10,000 to get a free night and they expire after a year and we do not travel but a couple of times a year to visit grandchildren. Not much of a gesture. Room price was good and the room was ok otherwise, but I hate dealing with issues late in the evening. Oh and they change the wi-fi password at 10 pm just to frustrate those of us that stay up a bit later. We stayed 2 nights and the room was not cleaned after the first night.More</t>
   </si>
   <si>
+    <t>monicahL1504MM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r545841971-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,6 +312,9 @@
     <t>There was an issue with the rewards points for the stay.  They offered double the Greener Stay rewards points for declining room service on a Holiday.  It took several days and multiple communications to accomplish this.  My advice - if you offer the rewards then make it no hassle and honor the reward.  It should not ever be a hassle for the consumer.  The stay was decent other than the points issue and a not fully stocked breakfast area during the second half of the breakfast hours.  So my other advice if you decide to stay is to get there early for breakfast if you want a good selection.More</t>
   </si>
   <si>
+    <t>Flamingojacque</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r500533838-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -327,6 +342,9 @@
     <t>Very kind staff. Clean and well kept. Breakfast is okay. More than the standard, but not by a whole lot. Pre-made omelets, various breakfast meats, then standard breads. Pancake machine was broken, I'm sure they'll fix it soon. We would come back. Construction in the area is a pain but that isn't their fault. More</t>
   </si>
   <si>
+    <t>Begemoth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r496371128-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,6 +363,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>kymm530</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r495085847-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -372,6 +393,9 @@
     <t>It was obvious this particular hotel is still in the middle of remodeling once you exit the lobby area and go upstairs. Once you stepped off the elevator the hallway held a little musty odor,  thank goodness it didn't extend into my room 223, otherwise I would've checked out.  With that said, the bathroom decor was very modern but the room furniture, not so much.  The room lacked outlets by the bed area (only one located by the desk) and no USB connectors. Before coming to this location I drove up from another HI Express in Houston so it was easy to compare pros/negs. Overall for the purpose of two days this location was enough, but I am sure once they finish all improvements and clean the carpets (or remove) this place will definitely be a fighting contender.  Pro: All staff pleasant, attentive and always ready to help.  Morning newspaper (Houston doesn't offer )Neg: Laundry area is all the way down the hall on the first floor, and it's gross.  Machines have to directions on which options are which (both Canadian models, so wasn't quite sure what the illustrations were referring to)Musty smell once you walk out of your room.  More</t>
   </si>
   <si>
+    <t>kglen1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r493608772-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -390,6 +414,9 @@
     <t>We stayed here when our daughter had other visitors come in.  Figured a couple nights to ourselves was a great idea.  Checked in without a problem but quickly found out that the internet connection wasn't working the best.  We were referred to an outside tech person who spent over 30 minutes on the phone with us but things didn't improve then.  However, later in the stay, it was fine.  So maybe just a temporary problem.Next, we found out that our phone didn't work.  Called the desk and they got that straightened out quickly.Our room was good-sized, clean with a comfortable bed.  Also quiet--we were on the third floor.  We made use of the pool with our granddaughter--it was cold but she loved it.  Breakfast was very good with several choices of hot foods.  There were cookies/snack mix in the afternoon.  We were there on the weekend but understand there is a manager's reception during the week, something we have experienced at no other HIE.  There are several restaurants, both sit-down and fast food, in the area.  Once you know how to access the hotel, it's easy to get to--just take the access road going south on I-35 from Western Center.  There's also an entrance off the street just west of the hotel.Would we come back again--we're planning on a July visit.More</t>
   </si>
   <si>
+    <t>Claudia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r488302039-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -417,6 +444,9 @@
     <t>My mom, grandpa, and I came to stay for one  night and the front desk women treated us poorly. We also requested a one room with two queen beds but did not receive. They promised earlier that day we would have the room but later in the evening when we came to check in since the rooms were not ready. The other woman said those rooms were sold out. We were stuck with being lied to and stuck with one room with one bed but we stuck through it. We got into our room and make the couch that converts into a bed and make it for my grandpa since he has back problems and we call the front desk for a blanket and sheets. Then we get a hella rude response by the front desk lady just to tell us it's under the television and my mom and I had enough. They never brought the blanket. The staff never even told us about the free breakfast or any helpful information that they tell other guests. Terrible front desk staff and it's just an inconvenience location right by a construction site. We left after 15 minutes checking in and stayed at the comfort inn right by this hotel and it was great. This hotel has bad service and we don't recommend it to anyone. More</t>
   </si>
   <si>
+    <t>jeanamarieandreatta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r336084541-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -447,6 +477,9 @@
     <t>We booked through trip advisor and needed to cancel the reservation. After being on hold for an extended time, Holiday inn connected us to Orbitz, which is not who we used. In trying to resolve this, we were transferred and disconnected multiple times. Trip advisor wants to charge us $131 cancellation fee on a $141 room. Kudos to the management at Holiday Inn who went out of their way to help us. We will continue to use Holiday Inn Express. However, we will never again use Trip Advisor nor any other third party to book a room. Call directly! It's amazing how easily they will charge your card and take your money but to get I back takes an act of God. More</t>
   </si>
   <si>
+    <t>Irina I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r328611614-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -474,6 +507,9 @@
     <t>The rooms are  clean, the staff is friendly, great food variety for breakfast, and super fast check out! Express is the name! My favorite chain to use when traveling by car, with the entire family, any swasonMore</t>
   </si>
   <si>
+    <t>Brian V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r317213308-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -504,6 +540,9 @@
     <t>This review is not so much about the hotel as a heads up about the MAJOR road construction that is be done on I-35. The hotel was great as always. Holiday Inn Express' are my go to hotel when traveling.  I have not been disappointed as to date.</t>
   </si>
   <si>
+    <t>Janet W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r316007582-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -519,6 +558,9 @@
     <t>They was a very nice surprise. The room with sofa bed is huge. Fridge and microwave . Bed is extremely comfortable . Little bit of freeway noise. Good blackout curtains help to keep lights out and noise down. Friendly service and small complaint about the tub draining was immediately dealt with . I did not have the breakfast but it is available. Would definitely stay here again when in the area</t>
   </si>
   <si>
+    <t>SSSandMar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r315206993-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -534,6 +576,9 @@
     <t>I love Holiday Inn Express &amp; Suites-HIE!!! The Front desk crew is amazing!! Especially Maria!! Stay when you can!!She is awesome.  Exercise room nice. The rooms are clean .She was very concerned about my    stay and they have POSTCARDS!!! Fabulous!!!</t>
   </si>
   <si>
+    <t>Cheergrandma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r294543809-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Margie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r284400753-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>BronteReed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r284027659-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -588,6 +639,9 @@
     <t>We stayed at this hotel en route to Omaha for the College World Series.  Check-in was quick and the clerks were friendly and efficient.  They serve a reception with drinks in early evening, but unfortunately we missed it.  However, there were plenty of options of restaurants around us, including Joe's Crab Shack, Bostons, Chilis, several TexMex and other options all within 0-4 blocks.  There is also a Starbucks in the complex area.  Breakfast was standard HGIE fare, but was fresh and well-stocked.  Scrambled eggs, boiled eggs, turkey and regular sausage, biscuits and gravy were among some of the hot items.  Our room was clean and fresh smelling and we had ample room in our King Suite.  We visited the indoor pool and whirlpool, but we did not use it as it was rather late once we got back from dinner.  We tried to stay here on our return visit, but it was booked.  No surprise - great bang for your buck.  There is some construction in the area, but once that clears up, this should be a nearly flawless option in hotels.More</t>
   </si>
   <si>
+    <t>AccidentalTexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r283469077-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t xml:space="preserve">I needed a place to stay in the area for my son's golf tournament, and was very pleased with this choice. It's a nice area with plenty of restaurants nearby. We walked down the street to Joe's Crab Shack. The lady at the front desk was very friendly and welcoming, the room extremely clean (and trust me I'm picky), and nice and quiet away from the highway. </t>
   </si>
   <si>
+    <t>FlashRiley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r280258454-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>I stayed here with my elderly parents for three nights in June.  We had a reservation with another hotel nearby, but when we arrived, they did not have a handicapped accessible room, which my father needed.  It was late and we were tired when we arrived at this Holiday Inn Express.  Cherokee at the front desk was quickly able to verify that they could accommodate us with a handicapped room, and happily went out of her way to show us the room to be sure it met my father's unique needs.  The hotel is clean, quiet and has a wonderful breakfast buffet.  We will definitely stay again!More</t>
   </si>
   <si>
+    <t>bigbubbapk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r275135158-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,6 +696,9 @@
     <t>May 27, 2015</t>
   </si>
   <si>
+    <t>CestJacque</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r273204138-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -672,6 +735,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>scottrm612</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r263799934-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -682,6 +748,9 @@
   </si>
   <si>
     <t>Good clean hotel. Friendly staff. Breakfast buffet was also OK. Hot eggs, bacon, sausage. Cold cereals, bagels muffins etc. Work out room had only one working treadmill. The other was being repaired. It had other equipment though. Pool looked nice, was indoor.</t>
+  </si>
+  <si>
+    <t>SLP94</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r250912177-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
@@ -721,6 +790,9 @@
 And to top all that off the staff didn't even clean our room until after 3pm and this not a big hotel. We had been up since 3am to get ready for the show and were really tired. So we had to sit outside the hotel and wait until the room was cleaned. All we wanted to do was take...My family stayed here while we were showing at the Ft. Worth stock show. It was easy on/off the highway and only 10 minutes from the Will Rogers Complex. But unfortunately that is the best I can say for this hotel. There were several places to eat near by.When we checked in no one at the reservations desk. We had to wait and when she came out it was obviously she wasn't excited about her job. She wasn't rude but she wasn't going to go above and beyond in her job. The beds were not comfortable at all. They were hard.The hotel walls did not drown out the highway traffic noise or the noise between rooms. I heard our neighbors for over an hour and they were not yelling or having a party. Just talking. We ended up having to move rooms because the faucet in the shower did not go all the way to hot. We informed the staff and it was not fixed and they gave us another room. Luckily it was just across the hallway. And to top all that off the staff didn't even clean our room until after 3pm and this not a big hotel. We had been up since 3am to get ready for the show and were really tired. So we had to sit outside the hotel and wait until the room was cleaned. All we wanted to do was take a nap. Overall, if I wanted to stay just one night this would probably be an okay hotel but for multiple nights I wouldn't stay here.More</t>
   </si>
   <si>
+    <t>Cat_9079</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r240134061-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -739,6 +811,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>gyvette59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r210735591-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -763,6 +838,9 @@
     <t>Friendly and accommodating staff. The hotel was clean, and the room was nice and equipped with everything necessary to make your stay comfortable. Close to restaurants but lots of construction in the area. I would stay here again!More</t>
   </si>
   <si>
+    <t>armypilot44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r206556721-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -790,6 +868,9 @@
     <t>If you're staying in the area for  few nights this is the place.  This was my second trip to the area that lasted 2 weeks of staying in the hotel.  It is definitely above average, but nothing exceptional.  The main reason why we stay here as opposed to 20 min closer to our work is the location to restaurants and bars.More</t>
   </si>
   <si>
+    <t>Misty M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r202562910-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -817,6 +898,9 @@
     <t>I had to stay at this hotel while my husband attended a paint class, and the ladies  at the hotel was very nice.  They helped me with anything I needed, and since my husband was in class all day i hung out at the hotel.  These wonderful ladies made sure i did'nt want for anything.  They are pet friendly which was such a big help and for the first time during my stay at a hotel their pool was 24 hrs.  This is an exceptional plus and I will let everyone back home in Oklahoma know just how wonderful the women of this hotel made my three day stay into a great vacation.More</t>
   </si>
   <si>
+    <t>Glon Drack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r188586713-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -838,6 +922,9 @@
     <t>Stayed here for one night on business as it was close to the Bureau of Engraving and Printing.  There is some major construction going on on Route 820 which makes getting to the hotel a little tricky, but it can't be all that hard if someone like myself who has never been to Fort Worth figured it out.  Front desk staff were very efficient and friendly.   I had a king room and it was enormous.  Large bathroom with good shower.  Comfortable bed sitting area, desk, fridge, microwave and coffee maker.  Free Wifi was nice.  Shower had good pressure and sink stopper actually stopped water (a rarity in my experience) so shaving was easy.     Hot breakfast in the morning was good with eggs, sausage, fruits, cereal, pastries and even a machine that makes pancakes for you.  Woman manning the buffet seemed to do a good job keeping everything stocked.      Would stay here again.More</t>
   </si>
   <si>
+    <t>Texan_2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r181019712-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -856,6 +943,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>John T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r164709153-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -883,6 +973,9 @@
     <t>18 days w/9 days of no TV/Electricity shutting off/on. No soap dish in shower. No floor mat in shower finally got only after I told Mgr nearly falling several times. Support staff refused to speak English &amp; could not understand English. Food quality preparation extremely poor, biscuits hard &amp; dry, gravy was soup like, no Microwave to warm lukewarm coffee, dining room kept at very uncomfortable 71/72 degrees. Safety/Security issues w/homeless/illegals entry by back door. Mgr has very poor customer communication skills, refused to provide owner/supervisor contact information. Refused to adjust bill for lack of TV service for 9 days.More</t>
   </si>
   <si>
+    <t>badman525</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r158938223-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -901,6 +994,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>TxQMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r158154915-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1021,9 @@
     <t>Pretty hotel, clean, well decorated, great staff. But for the price (which is not bad) you got a tiny tiny room and not any breakfast items....donut, muffin, nothing. Not that I got to a hotel for its breakfast but for the price and size of the room ya gotta get something.More</t>
   </si>
   <si>
+    <t>Sue L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r152112565-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1045,9 @@
     <t>Eleven other women and I had to attend a conference in Fort Worth and found the hotel on line.  Of course on line everything always looks great but when we got to the hotel we found that it was really as good as everything we had viewed and read.  The people at the front desk was friendly, helpful, and informative.  They had great smiles and made us feel right at home.  The rooms themselves were extremely nice, clean, and more room than we had expected.  The complimentary breakfast was very good. (Good enough that we didn't go to Cracker Barrel where we usually go for breakfast!!)  We would definitely return to this hotel if we go back to Fort Worth.More</t>
   </si>
   <si>
+    <t>Brenda O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r148091856-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -964,6 +1066,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>FlyingEvilMonkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r146561443-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1093,9 @@
     <t>I knew things were gonna be bad when I was left at the airport for over an hour waiting for the shuttle. The rooms are alright but try to get a top floor. Not much soundproofing between floors. They advertise to bell training center attendees that they will have a shuttle available to and from the centre as well as within a five mile radius. Well here I am on Saturday with a day off and no shuttle to get me anywhere and a minimum two hour wait for a cab. Shuttle service has left me waiting for an hour twice and over a half hour numerous times with previous arrangements made. My colleagues who are staying at the best western have had zero problems with their shuttle. Go stay there. There are lots of restaurants near here but if you have a day off try to come up with some other way to see the sights.Also try to get up earlier and skip the breakfast they serve here. Yuck. I would gladly stay at a lower grade hotel if it meant I wouldn't be sitting here on a beautiful day in a new country with nothing to do but write this review. More</t>
   </si>
   <si>
+    <t>halsey11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r144712814-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1120,9 @@
     <t>This is an outstanding facility.  Everything is always neat and clean.  Meals served are above average.  It is easy to get to most everywhere in the Ft. Worth area.  We have stayed at this facility in the past and yet it always looks new.More</t>
   </si>
   <si>
+    <t>George65802</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r144590088-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1033,6 +1144,9 @@
     <t>As priority club platinum member, I enjoy the reserved parking spaces, the welcome letter in the check-in folder and most of all, I appreciate the acknowledgement. The property was clean inside and out and out and my room smelled great. Enjoy you stay, GeorgeMore</t>
   </si>
   <si>
+    <t>Debbie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r142989994-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1171,9 @@
     <t>Our visit to Ft. Worth was for our son's wedding. Being that I have never had to deal with making arrangements for family and friends before or planning for a rehursal dinner. My first phone call with Kelly was professional, friendly, helpful and easy. She walked me through everything and made my job as mother of the groom a breeze. She helped set up room reservations, and a meeting room for the rehursal dinner. Once we got to the hotel, the staff was friendly, helpful, professional. They handled every need I had. My family and friends were treated like they were the most important people there. From Kelly to the front desk to the ladies who prepared our breakfast every morning to the cleaning staff. I say Thank you from the bottom my heart. You were all wonderful and if I could hug you all I would And that includes Hugo too.More</t>
   </si>
   <si>
+    <t>DDBQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141616108-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1201,9 @@
     <t>Our family spent one night here.  We were very impressed with the front desk associate, Joanie Kazelis.  Ms. Joanie was kind, friendly, helpful, and an absolute professional.  She ought to be recognized and put in a position of leadership!  This motel is one of the cleanest establishments in which we have ever stayed.  The bathroom is beautiful and guests are provided with toiletries above &amp; beyond the typical soap or shampoo.  My husband was happily surprised to see "real" suit hangers! We will certainly tell everyone about this motel &amp; we will happily stay here again the next time we are in the area.More</t>
   </si>
   <si>
+    <t>nayashae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141370837-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1126,6 +1246,9 @@
     <t>I went to this hotel to have a slumber party for my daughters birthday. when i arrived, from the minute i walked thru the door my terrible experience started. The staff here was horrible. the lady on duty when i arrived was Joni. she was not friendly and when i asked for a early check in she felt the need to remindly me rudely that check in time was 3pm. i was already advised of this but prior to my booking the room. i was advised that check in was 3pm but if a room was available i would be able to check in as early as 12 noon. I didnt argue with the woman i just said that was fine and sat in the lounge until a room was available. later that day when all the girls arrived they decided to go swimming, we took the towels out of the restroom of the hotel and went down to the pool. after getting to the pool we discovered that the hotel provided pool towels. we didnt bother with them as we had already grabbed the towels from the room.  when we returned to the room, i had my daughter call downstairs to ask for more towels as the girls now needed to shower. when my daughter hung up, she said "mom, the lady was rude and told me she couldnt bring me towels and to come get them myself". Again,...I went to this hotel to have a slumber party for my daughters birthday. when i arrived, from the minute i walked thru the door my terrible experience started. The staff here was horrible. the lady on duty when i arrived was Joni. she was not friendly and when i asked for a early check in she felt the need to remindly me rudely that check in time was 3pm. i was already advised of this but prior to my booking the room. i was advised that check in was 3pm but if a room was available i would be able to check in as early as 12 noon. I didnt argue with the woman i just said that was fine and sat in the lounge until a room was available. later that day when all the girls arrived they decided to go swimming, we took the towels out of the restroom of the hotel and went down to the pool. after getting to the pool we discovered that the hotel provided pool towels. we didnt bother with them as we had already grabbed the towels from the room.  when we returned to the room, i had my daughter call downstairs to ask for more towels as the girls now needed to shower. when my daughter hung up, she said "mom, the lady was rude and told me she couldnt bring me towels and to come get them myself". Again, me trying to keep confusion down on her birthday, I told her, just go get the towels so ya'll can take showers. so wehn my dughter went to get towels, she stated Joni would only give her 2 big towels and no face towels. I then called downstairs yet again and advised the young lady that i had 5 girls at a slumber party that needed to showers and she told me and i quote: " i can give you a couple more towels, but make sure you dont take them home with you". i have never felt so disrespected in  my life. for her to imply that we were going to steal hotel towels.  i assured her that we would shower and bring the towels to the front desk as soon as we were finished. At this point im almost in tears im so furious but i still refused to go off as i have my daughter and her friends and dont want to go off and be the bad person. The lady joni advised me that they did not have much clean linen and that was why she was unable to provide the linen that was needed. i made my daughter open her birthday gift (a comforter set) and put sheets on the couch bed in order for some of the girls to sleep there.  when we woke up this morning and were getting dressed and preparing to leave. housekeeping knocks and bursts in while we are getting dressed and says dont you check out today? i said yes maam but check out is at 12 noon right? then she apologizes and walks away. after we were dressed and prepared to leave i walked out the door and noticed that my bill with all my personal information for my account was laying in the middle of the hallway. thats when i called corporate. the lady i spoke with on the phone did not appear to be interested but did contact the hotel staff and have them offer me a $30 discount. honestly, i would like to not have to pay for this experience at all. i would not accept a night free.they can have it. i would never stay nor recommend this hotel again.i stay at hotels often but this experience was horrific. they appear to be trying to save money because the issue with the towels and the note in the restroom that says re-use towels and the fact that we took a dvd player to watch movies and the hotel has a block on the tv that prevents u from watching movies as they would prefer you to buy theirs. ive never stayed at a hotel where the kids couldnt bring their own games and movies. needless to say if you are looking for top notch, THIS IS NOT IT!!!!!!!More</t>
   </si>
   <si>
+    <t>Saskproud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r137311154-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1270,9 @@
     <t>The staff at this hotel are so helpful and courteous.  The rooms seem brand new, the furniture is beautiful, the bathrooms are spotless and the decor is refreshing.  The breakfast selection was impressive but even more impressive was their evening manager's reception with free beer, wine and a full meal including salad, mashed potatoes and rib burgers!  There was no need for a restaurant so it stretches your dollar far.  I will be back as this is my Fort Worth hotel of choice for sure.   More</t>
   </si>
   <si>
+    <t>Imeldific44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r118175341-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1291,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>PDXtraveler281</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r116543508-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1309,9 @@
     <t>Stayed here for one night.  It is a new hotel, and the room was very large, quiet and tastefully decorated.  It had a pool but I didn't use it.  The wireless connection was good, there was a desk and easy chair in the room.  Small fridge and microwave on their own counter.  Nice, upscale bathroom.  I arrived rather late from the airport, but there were several restaurants nearby open till midnite, so all worked out well. The free express breakfast was fine--typical Holiday Inn Express fare, including hot items.</t>
   </si>
   <si>
+    <t>ddubb43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r115164093-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1330,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>JRN418</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r114649818-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1351,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Dajo43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r114272487-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1378,9 @@
     <t>We had no idea animals were allowed in this hotel until AFTER our credit card was charged and we saw a man walking his 2 dogs on our floor. Reservation agents should tell cusomers BEFORE they book that dogs have been in the beds.More</t>
   </si>
   <si>
+    <t>Saturndriver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r109494164-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1259,6 +1400,9 @@
   </si>
   <si>
     <t>My wife and I have stayed here before.  We generally had a pleasant experience.  One thing we remembered about the hotel was the nice pool.  This time we stayed on a Friday night.  Big mistake.  The hotel was full of kids.  All night my wife heard kids running up and down the hallways and the pool was so crowded that neither of us wanted to take a swim.  It seemed that the parents didn't know where their kids were at night.  We also had our "Do not disturb" sign taken during the night.  So my advise is that the hotel is nice to stay on the weekdays but do not stay here on the weekends or the summer.More</t>
+  </si>
+  <si>
+    <t>aggieband</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r98186343-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
@@ -1288,6 +1432,9 @@
 The biggest negative for this hotel is the horrible traffic situation that exists due to its proximity to the Loop 820/I-35W interchange. This is...I was looking for a place to stay for a long holiday weekend and needed to be close to the home of some friends in Saginaw. I forgot how close this hotel was to the Texas Motor Speedway and the Stockyards as well as how horrible the traffic is in the area of Loop 820 and I-35W. Most of the other guests were NASCAR types and had multiple kids, making use of the indoor pool or the morning breakfast buffet an impossibility. The parking situation is also not good, with the spaces being far too narrow for all of the duel-wheeled pickup trucks owned by the other guests. There are a number of nice restaurants nearby, many within walking distance. Waffle House, Joe's Crab Shack, Rosa's Cantina, Boston gourmet pizza, Starbucks, Whataburger, Popeyes, and McDonalds are all very close and on the opposite side of the freeway, within easy reach, are On the Border, Romano's Macaroni Grill, Chilis, Saltgrass steakhouse, MK's sushi, Braum's ice cream, Wendys, Genghis Mongolian Grill and several other Mexican restaurants. There are two nice public golf courses close by, The Club at Fossil Creek and Iron Horse, both of which are very highly rated and well-conditioned. Shopping is available at Northeast Mall in Hurst, about a five mile drive to the east.The biggest negative for this hotel is the horrible traffic situation that exists due to its proximity to the Loop 820/I-35W interchange. This is the worst highway in Dallas-Fort Worth and traffic headed south on I-35W is backed up for miles 24 hours a day. Unless you are a native (as I am) or frequent visitor and know how to get around using city streets and avoiding the freeway, this makes getting the short distance into Fort Worth a nightmare. Be sure to check to see if there are events scheduled at the Speedway or Stockyards before booking this hotel as the infrastructure of the city cannot handle the additional traffic from major events at  any of these venues. All-in-all, the hotel was acceptable, but it suffered in comparison to some of the other, much nicer places I stayed on this trip for the same or less money. It is not a bad hotel and the staff is alright, but the location is a detriment in terms of mobility and the parking situation is terrible. If you are a NASCAR fan, it is a great place to stay during race weekends; otherwise, find another option away from the crowds.More</t>
   </si>
   <si>
+    <t>dsgunn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r89663430-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1453,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>DJPOSEY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r80139680-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1324,6 +1474,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>markcook2289</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r76358630-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1495,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>TravelingPhD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r17918683-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1361,6 +1517,9 @@
   </si>
   <si>
     <t>On our cross-country trek from CA to North Dakota to Louisiana, this was the very best hotel we stayed in.  It was the only one where I felt like the first person to be there (and I'm sure I wasn't).  It's great to find a hotel where everything is so clean.  There were no stray hairs, Doritos under the bed, dust piles in the corners, etc.  I couldn't imagine it being any cleaner and the decor is quite upscale as well.  Also, it's really quiet even though it's off the freeway.  Even though there was someone staying next door, we never heard anything.  The area has a lot of good chain restaurants too.  I'd love to visit again!More</t>
+  </si>
+  <si>
+    <t>nree</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r14448207-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
@@ -1883,43 +2042,47 @@
       <c r="A2" t="n">
         <v>56207</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155643</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1935,56 +2098,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56207</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155644</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1996,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -2015,37 +2182,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2057,56 +2224,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56207</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155645</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2124,56 +2295,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56207</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155646</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2189,56 +2364,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56207</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155647</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2250,56 +2429,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56207</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155648</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2317,50 +2500,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56207</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155649</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2372,56 +2559,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56207</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155650</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2439,50 +2630,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56207</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>73171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2494,56 +2689,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56207</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155651</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2555,56 +2754,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56207</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155652</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2620,56 +2823,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56207</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2683,50 +2890,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56207</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2740,50 +2951,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56207</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>17782</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2801,50 +3016,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56207</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>47570</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2858,50 +3077,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56207</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155653</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2919,50 +3142,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56207</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155654</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2976,50 +3203,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56207</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>50043</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3037,50 +3268,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56207</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155655</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3094,50 +3329,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56207</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155656</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>199</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>183</v>
-      </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3153,41 +3392,45 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56207</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155657</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3203,51 +3446,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56207</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155658</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3265,50 +3509,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56207</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155656</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3322,50 +3570,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56207</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155659</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3379,50 +3631,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56207</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>139050</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3440,56 +3696,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56207</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155660</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3503,41 +3763,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56207</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>39239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -3564,56 +3828,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56207</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155661</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3635,56 +3903,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="X30" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56207</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>101380</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3706,56 +3978,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56207</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155662</v>
+      </c>
+      <c r="C32" t="s">
+        <v>290</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3779,50 +4055,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56207</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155663</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3846,50 +4126,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56207</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3911,56 +4195,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56207</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>36043</v>
+      </c>
+      <c r="C35" t="s">
+        <v>315</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3984,41 +4272,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56207</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>123108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -4045,56 +4337,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="X36" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56207</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>8151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4118,50 +4414,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56207</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>11965</v>
+      </c>
+      <c r="C38" t="s">
+        <v>339</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4185,41 +4485,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56207</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155664</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
@@ -4246,56 +4550,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="X39" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56207</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155665</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4317,47 +4625,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="X40" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56207</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155666</v>
+      </c>
+      <c r="C41" t="s">
+        <v>364</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -4384,56 +4696,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="X41" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56207</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>18624</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4455,56 +4771,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="X42" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="Y42" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56207</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155667</v>
+      </c>
+      <c r="C43" t="s">
+        <v>381</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4526,47 +4846,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="X43" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Y43" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56207</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155668</v>
+      </c>
+      <c r="C44" t="s">
+        <v>391</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -4593,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="X44" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Y44" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45">
@@ -4612,37 +4936,37 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="J45" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="L45" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="O45" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4664,56 +4988,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="X45" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56207</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>35819</v>
+      </c>
+      <c r="C46" t="s">
+        <v>406</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4725,56 +5053,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="X46" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="Y46" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56207</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155669</v>
+      </c>
+      <c r="C47" t="s">
+        <v>414</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J47" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K47" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4796,50 +5128,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56207</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155670</v>
+      </c>
+      <c r="C48" t="s">
+        <v>421</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="J48" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4859,50 +5195,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56207</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155671</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="K49" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4922,50 +5262,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56207</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155672</v>
+      </c>
+      <c r="C50" t="s">
+        <v>434</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4985,50 +5329,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56207</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>95528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>441</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5044,56 +5392,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="X51" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="Y51" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56207</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155673</v>
+      </c>
+      <c r="C52" t="s">
+        <v>450</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="J52" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="K52" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="O52" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5117,50 +5469,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56207</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>38517</v>
+      </c>
+      <c r="C53" t="s">
+        <v>458</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="J53" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="K53" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="L53" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="O53" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5184,50 +5540,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56207</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155674</v>
+      </c>
+      <c r="C54" t="s">
+        <v>466</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="O54" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5251,50 +5611,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56207</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155675</v>
+      </c>
+      <c r="C55" t="s">
+        <v>473</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="J55" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K55" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L55" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="O55" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5308,50 +5672,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56207</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155676</v>
+      </c>
+      <c r="C56" t="s">
+        <v>480</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="J56" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="K56" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="L56" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5375,50 +5743,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56207</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155677</v>
+      </c>
+      <c r="C57" t="s">
+        <v>487</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="J57" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="O57" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5442,41 +5814,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56207</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155678</v>
+      </c>
+      <c r="C58" t="s">
+        <v>495</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="J58" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="K58" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -5495,7 +5871,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_367.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_367.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="716">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jessica h</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r572441785-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r597616263-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>55857</t>
@@ -165,6 +162,97 @@
     <t>672597</t>
   </si>
   <si>
+    <t>597616263</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Enjoyed our Newly Renovated Room</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for a couple of days on vacation and we really enjoyed our stay. Our 2nd floor room was recently remodeled and the hotel was in the process of remodeling the rest of the floor. When we checked in, the person behind the desk told us that they were at capacity, but shortly afterwards we discovered that was because many of the rooms were in the process of being remodeled. The hallway had that new carpet smell and the workers had the pieces of the desk, bureau’s, luggage racks, etc staged in the hallway ready to be assembled. The manager had evening happy hour 3 times a week with pizza, tacos/beer and soup/salad. This hotel is located on a very congested highway during rush hour. There was plenty of restaurants and shopping nearby.Our room had 10’ ceilings, a nice bathroom with a 1 piece shower insert that looked elegant. On the other hand, they kept the older toilet and put tons of caulking between the bottom of the toilet and the tile floor, which stood out like a sore thumb and looked sloppy. They also had shampoo, conditioner and shower gel in dispensers in the shower rather than the small bottles that most hotels still provide.Our room didn’t get serviced until 4:30pm one day. We enjoyed our newly renovated room and we would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for a couple of days on vacation and we really enjoyed our stay. Our 2nd floor room was recently remodeled and the hotel was in the process of remodeling the rest of the floor. When we checked in, the person behind the desk told us that they were at capacity, but shortly afterwards we discovered that was because many of the rooms were in the process of being remodeled. The hallway had that new carpet smell and the workers had the pieces of the desk, bureau’s, luggage racks, etc staged in the hallway ready to be assembled. The manager had evening happy hour 3 times a week with pizza, tacos/beer and soup/salad. This hotel is located on a very congested highway during rush hour. There was plenty of restaurants and shopping nearby.Our room had 10’ ceilings, a nice bathroom with a 1 piece shower insert that looked elegant. On the other hand, they kept the older toilet and put tons of caulking between the bottom of the toilet and the tile floor, which stood out like a sore thumb and looked sloppy. They also had shampoo, conditioner and shower gel in dispensers in the shower rather than the small bottles that most hotels still provide.Our room didn’t get serviced until 4:30pm one day. We enjoyed our newly renovated room and we would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r597482597-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>597482597</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Would Return!</t>
+  </si>
+  <si>
+    <t>Clean, clean, clean! Front desk very helpful and near quite a few restaurants from breakfast to closing! Rooms are large and very modern. Hotel has a fitness room and an indoor pool! Breakfast is provided and that is a huge perk!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Clarisa D, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Clean, clean, clean! Front desk very helpful and near quite a few restaurants from breakfast to closing! Rooms are large and very modern. Hotel has a fitness room and an indoor pool! Breakfast is provided and that is a huge perk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r589793791-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>589793791</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay!</t>
+  </si>
+  <si>
+    <t>This week we were in Texas for a wedding. We are crafty veteran travelers to Florida for vacation, but this is the first trip to Texas for us. The 17+ hour trip from central Illinois was going to be daunting for sure. We are so glad we had decided to stop for the night at the Holiday Inn Express and Suites Fort Worth I-35 Western Center.
+ Located literally off of I-35, the hotel was easy to find. We were able to find on-site parking very easily and entered the lobby. We were greeted by the friendly and professional staff. Check-in was fast and went very smoothly.
+The entrance and lobby were bright and very clean. We took a look at the inviting sitting area that hosts the complimentary breakfast each morning (pancakes, eggs, bacon, bakery items and more). There was a coffee station as well as a beer cart (we just missed the happy hour).
+There was a table set up with cookies and lemonade. What a great way to greet guests who have been on the road all day.  We headed up to our room on the 3rd floor. I really liked the bright colors used in the decor in the hallway.
+Our room was super clean (always important to me as a traveler) and quite spacious for the two of us.
+The shower included J.R. Watkins shampoo, conditioner, and shower gel in dispensers on the wall.  This is...This week we were in Texas for a wedding. We are crafty veteran travelers to Florida for vacation, but this is the first trip to Texas for us. The 17+ hour trip from central Illinois was going to be daunting for sure. We are so glad we had decided to stop for the night at the Holiday Inn Express and Suites Fort Worth I-35 Western Center. Located literally off of I-35, the hotel was easy to find. We were able to find on-site parking very easily and entered the lobby. We were greeted by the friendly and professional staff. Check-in was fast and went very smoothly.The entrance and lobby were bright and very clean. We took a look at the inviting sitting area that hosts the complimentary breakfast each morning (pancakes, eggs, bacon, bakery items and more). There was a coffee station as well as a beer cart (we just missed the happy hour).There was a table set up with cookies and lemonade. What a great way to greet guests who have been on the road all day.  We headed up to our room on the 3rd floor. I really liked the bright colors used in the decor in the hallway.Our room was super clean (always important to me as a traveler) and quite spacious for the two of us.The shower included J.R. Watkins shampoo, conditioner, and shower gel in dispensers on the wall.  This is so much smarter than the tiny bottles that are always wasted.There was also coffee maker, mini fridge, and microwave in the room.Maybe most convenient were the outlets on the table in between beds   We have all kinds of electronic devices so these were a we,come sight for usThe Holiday Inn Express and Suites Fort Worth I-35 Western Center has many restaurant options nearby that will satisfy even the pickiest eaters. We grabbed some dinner then settled in for the night. The mattress was comfortable and the pillows were just right. If you are coming to the Fort Worth area for vacation or business or if you are just passing through for the night, the Holiday Inn Express and Suites Fort Worth 1-35 Western Center is a great choice for your accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Clarisa D, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>This week we were in Texas for a wedding. We are crafty veteran travelers to Florida for vacation, but this is the first trip to Texas for us. The 17+ hour trip from central Illinois was going to be daunting for sure. We are so glad we had decided to stop for the night at the Holiday Inn Express and Suites Fort Worth I-35 Western Center.
+ Located literally off of I-35, the hotel was easy to find. We were able to find on-site parking very easily and entered the lobby. We were greeted by the friendly and professional staff. Check-in was fast and went very smoothly.
+The entrance and lobby were bright and very clean. We took a look at the inviting sitting area that hosts the complimentary breakfast each morning (pancakes, eggs, bacon, bakery items and more). There was a coffee station as well as a beer cart (we just missed the happy hour).
+There was a table set up with cookies and lemonade. What a great way to greet guests who have been on the road all day.  We headed up to our room on the 3rd floor. I really liked the bright colors used in the decor in the hallway.
+Our room was super clean (always important to me as a traveler) and quite spacious for the two of us.
+The shower included J.R. Watkins shampoo, conditioner, and shower gel in dispensers on the wall.  This is...This week we were in Texas for a wedding. We are crafty veteran travelers to Florida for vacation, but this is the first trip to Texas for us. The 17+ hour trip from central Illinois was going to be daunting for sure. We are so glad we had decided to stop for the night at the Holiday Inn Express and Suites Fort Worth I-35 Western Center. Located literally off of I-35, the hotel was easy to find. We were able to find on-site parking very easily and entered the lobby. We were greeted by the friendly and professional staff. Check-in was fast and went very smoothly.The entrance and lobby were bright and very clean. We took a look at the inviting sitting area that hosts the complimentary breakfast each morning (pancakes, eggs, bacon, bakery items and more). There was a coffee station as well as a beer cart (we just missed the happy hour).There was a table set up with cookies and lemonade. What a great way to greet guests who have been on the road all day.  We headed up to our room on the 3rd floor. I really liked the bright colors used in the decor in the hallway.Our room was super clean (always important to me as a traveler) and quite spacious for the two of us.The shower included J.R. Watkins shampoo, conditioner, and shower gel in dispensers on the wall.  This is so much smarter than the tiny bottles that are always wasted.There was also coffee maker, mini fridge, and microwave in the room.Maybe most convenient were the outlets on the table in between beds   We have all kinds of electronic devices so these were a we,come sight for usThe Holiday Inn Express and Suites Fort Worth I-35 Western Center has many restaurant options nearby that will satisfy even the pickiest eaters. We grabbed some dinner then settled in for the night. The mattress was comfortable and the pillows were just right. If you are coming to the Fort Worth area for vacation or business or if you are just passing through for the night, the Holiday Inn Express and Suites Fort Worth 1-35 Western Center is a great choice for your accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r572441785-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
     <t>572441785</t>
   </si>
   <si>
@@ -180,10 +268,7 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Clarisa D, Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded April 14, 2018</t>
+    <t>Clarisa D, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 14, 2018</t>
   </si>
   <si>
     <t>Responded April 14, 2018</t>
@@ -192,10 +277,7 @@
     <t>This is a good hotel for staying at if you are attending the TMS NASCAR race. We booked early and got a good deal. The staff was friendly and it looks as if the hotel was recently updated. The pool and hot tub are open 24 hours so that was nice we could go late. It is a good area right off I-35 and is safe. The rooms are clean and comfortable. Lots of good lighting. We ate some breakfast and it was good. I would stay here again.More</t>
   </si>
   <si>
-    <t>WW2781</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r569557754-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r569557754-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>569557754</t>
@@ -216,7 +298,7 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Clarisa D, Front Office Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded April 1, 2018</t>
+    <t>Clarisa D, Front Office Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 1, 2018</t>
   </si>
   <si>
     <t>Responded April 1, 2018</t>
@@ -225,7 +307,7 @@
     <t>I stayed here two nights and it was great . Extremely friendly front desk staff both days. Very clean and quiet room . Breakfast was normal HIE but there was lots of choices as always , and the food was hot and fresh. Monday - Thursday they have welcome meal at night . We had cheeseburgers with all the fixings and salad with plenty to drink . All free . Lots of restaurants very close . Easy on and off 35W . Definitely will return on my next trip.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r555166640-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r555166640-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>555166640</t>
@@ -243,7 +325,7 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>Clarisa D, Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded January 23, 2018</t>
+    <t>Clarisa D, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded January 23, 2018</t>
   </si>
   <si>
     <t>Responded January 23, 2018</t>
@@ -252,10 +334,7 @@
     <t>Excellent value for the price and the hotel pool being open 24 hrs was awesome.  We didn’t go terribly late but it was nice to know we could have.  The breakfast was good and the staff was friendly. The room slept 6 and was very neat and clean.More</t>
   </si>
   <si>
-    <t>saprinter</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r550038526-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r550038526-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>550038526</t>
@@ -273,7 +352,7 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>IHGService, Guest Relations Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded January 15, 2018</t>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded January 15, 2018</t>
   </si>
   <si>
     <t>Responded January 15, 2018</t>
@@ -282,10 +361,7 @@
     <t>We stayed here because we were going to be traveling with a grand child and they website said they had a kids pool. They do not and the pool was kept at a temperature that is too cold to swim. The free breakfast was garbage. The bread for toast had to have passed its use by date a week ago. My wife asked for some fresh and what they brought her was rock hard and smelled funny. We had to change rooms at 10 pm because the toilet wouldn't flush. It had to be shut off at the wall because it was running constantly and was flooding. The toilet in the replacement room runs constantly. For the inconvenience they gave us 500 of their points which is really useless for us since it takes 10,000 to get a free night and they expire after a year and we do not travel but a couple of times a year to visit grandchildren. Not much of a gesture. Room price was good and the room was ok otherwise, but I hate dealing with issues late in the evening. Oh and they change the wi-fi password at 10 pm just to frustrate those of us that stay up a bit later. We stayed 2 nights and the room was not cleaned after the first night.More</t>
   </si>
   <si>
-    <t>monicahL1504MM</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r545841971-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r545841971-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>545841971</t>
@@ -303,7 +379,7 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>GMFORTWORTH, Front Office Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded December 11, 2017</t>
+    <t>GMFORTWORTH, Front Office Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded December 11, 2017</t>
   </si>
   <si>
     <t>Responded December 11, 2017</t>
@@ -312,10 +388,7 @@
     <t>There was an issue with the rewards points for the stay.  They offered double the Greener Stay rewards points for declining room service on a Holiday.  It took several days and multiple communications to accomplish this.  My advice - if you offer the rewards then make it no hassle and honor the reward.  It should not ever be a hassle for the consumer.  The stay was decent other than the points issue and a not fully stocked breakfast area during the second half of the breakfast hours.  So my other advice if you decide to stay is to get there early for breakfast if you want a good selection.More</t>
   </si>
   <si>
-    <t>Flamingojacque</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r500533838-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r500533838-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>500533838</t>
@@ -342,10 +415,7 @@
     <t>Very kind staff. Clean and well kept. Breakfast is okay. More than the standard, but not by a whole lot. Pre-made omelets, various breakfast meats, then standard breads. Pancake machine was broken, I'm sure they'll fix it soon. We would come back. Construction in the area is a pain but that isn't their fault. More</t>
   </si>
   <si>
-    <t>Begemoth</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r496371128-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r496371128-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>496371128</t>
@@ -363,10 +433,7 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>kymm530</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r495085847-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r495085847-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>495085847</t>
@@ -384,7 +451,7 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>IHGService, Guest Relations Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded July 7, 2017</t>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded July 7, 2017</t>
   </si>
   <si>
     <t>Responded July 7, 2017</t>
@@ -393,10 +460,7 @@
     <t>It was obvious this particular hotel is still in the middle of remodeling once you exit the lobby area and go upstairs. Once you stepped off the elevator the hallway held a little musty odor,  thank goodness it didn't extend into my room 223, otherwise I would've checked out.  With that said, the bathroom decor was very modern but the room furniture, not so much.  The room lacked outlets by the bed area (only one located by the desk) and no USB connectors. Before coming to this location I drove up from another HI Express in Houston so it was easy to compare pros/negs. Overall for the purpose of two days this location was enough, but I am sure once they finish all improvements and clean the carpets (or remove) this place will definitely be a fighting contender.  Pro: All staff pleasant, attentive and always ready to help.  Morning newspaper (Houston doesn't offer )Neg: Laundry area is all the way down the hall on the first floor, and it's gross.  Machines have to directions on which options are which (both Canadian models, so wasn't quite sure what the illustrations were referring to)Musty smell once you walk out of your room.  More</t>
   </si>
   <si>
-    <t>kglen1</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r493608772-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r493608772-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>493608772</t>
@@ -414,10 +478,7 @@
     <t>We stayed here when our daughter had other visitors come in.  Figured a couple nights to ourselves was a great idea.  Checked in without a problem but quickly found out that the internet connection wasn't working the best.  We were referred to an outside tech person who spent over 30 minutes on the phone with us but things didn't improve then.  However, later in the stay, it was fine.  So maybe just a temporary problem.Next, we found out that our phone didn't work.  Called the desk and they got that straightened out quickly.Our room was good-sized, clean with a comfortable bed.  Also quiet--we were on the third floor.  We made use of the pool with our granddaughter--it was cold but she loved it.  Breakfast was very good with several choices of hot foods.  There were cookies/snack mix in the afternoon.  We were there on the weekend but understand there is a manager's reception during the week, something we have experienced at no other HIE.  There are several restaurants, both sit-down and fast food, in the area.  Once you know how to access the hotel, it's easy to get to--just take the access road going south on I-35 from Western Center.  There's also an entrance off the street just west of the hotel.Would we come back again--we're planning on a July visit.More</t>
   </si>
   <si>
-    <t>Claudia R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r488302039-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r488302039-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>488302039</t>
@@ -435,7 +496,7 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Mitzi M, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded May 29, 2017</t>
+    <t>Mitzi M, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded May 29, 2017</t>
   </si>
   <si>
     <t>Responded May 29, 2017</t>
@@ -444,10 +505,325 @@
     <t>My mom, grandpa, and I came to stay for one  night and the front desk women treated us poorly. We also requested a one room with two queen beds but did not receive. They promised earlier that day we would have the room but later in the evening when we came to check in since the rooms were not ready. The other woman said those rooms were sold out. We were stuck with being lied to and stuck with one room with one bed but we stuck through it. We got into our room and make the couch that converts into a bed and make it for my grandpa since he has back problems and we call the front desk for a blanket and sheets. Then we get a hella rude response by the front desk lady just to tell us it's under the television and my mom and I had enough. They never brought the blanket. The staff never even told us about the free breakfast or any helpful information that they tell other guests. Terrible front desk staff and it's just an inconvenience location right by a construction site. We left after 15 minutes checking in and stayed at the comfort inn right by this hotel and it was great. This hotel has bad service and we don't recommend it to anyone. More</t>
   </si>
   <si>
-    <t>jeanamarieandreatta</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r336084541-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r485579737-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>485579737</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>A Delightful Place</t>
+  </si>
+  <si>
+    <t>Stayed several nights here for a conference nearby. Clean, comfortable rooms, modern feel dining room with usual selection of breakfast items. Friendly staff, decent price and handy to I-35. Mon- Thu, managers special with various dishes to select from daily - enough food that you don't need to eat dinner anywhere else if you choose. Beer &amp; wine with a selection of non-alcoholic drinks available also - all from 5.30-7.30. We enjoyed our stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Stayed several nights here for a conference nearby. Clean, comfortable rooms, modern feel dining room with usual selection of breakfast items. Friendly staff, decent price and handy to I-35. Mon- Thu, managers special with various dishes to select from daily - enough food that you don't need to eat dinner anywhere else if you choose. Beer &amp; wine with a selection of non-alcoholic drinks available also - all from 5.30-7.30. We enjoyed our stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r479115584-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>479115584</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great Spot</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 days. The staff are all great the hotel is clean and quiet and there is a "Managers Special" each night 1700-1900  Mon-Thru which includes a little meal and beer &amp; wine. It is complimentary and is just a great way to unwind after a day of work when you are away from home. The hotel is right next to I35 which makes it easy to get anywhere. A great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r473645448-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>473645448</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and Adequate IHG property </t>
+  </si>
+  <si>
+    <t>As holiday inn Express's go, this one is pretty good. In a nice area off of highway 820. Lost of food in the area. Adequate parking sharing with the hotel next door. Lobby and food area is very clean and well kept. Breakfast was the normal holiday inn fare. Front desk was friendly enough and accommodating. Rooms were clean and well maintained. Could use more pillows and bed stands that offer more A/C outlets. Shower head is lacking and shower curtain barely covers the bottom of the shower. I give it an average as the holiday inn express standard I've experienced is higher then others. I wish I could give it 3 and 1/2 instead of a four, but I guess it's deserved. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mitzi M, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>As holiday inn Express's go, this one is pretty good. In a nice area off of highway 820. Lost of food in the area. Adequate parking sharing with the hotel next door. Lobby and food area is very clean and well kept. Breakfast was the normal holiday inn fare. Front desk was friendly enough and accommodating. Rooms were clean and well maintained. Could use more pillows and bed stands that offer more A/C outlets. Shower head is lacking and shower curtain barely covers the bottom of the shower. I give it an average as the holiday inn express standard I've experienced is higher then others. I wish I could give it 3 and 1/2 instead of a four, but I guess it's deserved. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r471516038-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>471516038</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Inept front desk staff</t>
+  </si>
+  <si>
+    <t>Clean room, convenient location, but desk staff need training and courtesy lessons. Two night stay was satisfactory except when trying to purchase over priced pay per view movie.  On screen purchase failed repeatedly so called from desk and got response that only one who knew how to authorize purchase as a room charge wasn't there but would be back soon. After an hour wait, called desk again, to get response that they're not back yet but we will call your room when it's taken care off.  Almost 2 hours later was told we could now order over priced, did I say over priced, movie with no apologies or concern whatsoever. We just wanted to stay in, rest and watch a movie, but because of the limited cable tv channels, we decided to buy a movie. Who knew that would be such an ordeal?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Mitzi M, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Clean room, convenient location, but desk staff need training and courtesy lessons. Two night stay was satisfactory except when trying to purchase over priced pay per view movie.  On screen purchase failed repeatedly so called from desk and got response that only one who knew how to authorize purchase as a room charge wasn't there but would be back soon. After an hour wait, called desk again, to get response that they're not back yet but we will call your room when it's taken care off.  Almost 2 hours later was told we could now order over priced, did I say over priced, movie with no apologies or concern whatsoever. We just wanted to stay in, rest and watch a movie, but because of the limited cable tv channels, we decided to buy a movie. Who knew that would be such an ordeal?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r448079903-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>448079903</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Poor management and not accountable</t>
+  </si>
+  <si>
+    <t>I stayed one night and left the next day.  They charged $400 in cleaning expenses which I was not notified until I saw the bill.  They refused to consider that I did not cause any of the damage.  Please do not stay there they are dishonest and poorly managed. You will save yourself a lot of grief.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Mitzi M, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded January 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2017</t>
+  </si>
+  <si>
+    <t>I stayed one night and left the next day.  They charged $400 in cleaning expenses which I was not notified until I saw the bill.  They refused to consider that I did not cause any of the damage.  Please do not stay there they are dishonest and poorly managed. You will save yourself a lot of grief.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r438822858-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>438822858</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is a nice updated or new hotel. Everything was clean. The bathroom was a bit small in the king room but it was ok. The staff was friendly and check in fast. Good location, many restaurants near by.comfortable bed. I would stay here again. Breakfast area was nice and clean and kept stocked.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r418172340-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>418172340</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>One of the best HI Expresses we've stayed at</t>
+  </si>
+  <si>
+    <t>We've stayed in numerous HI Express hotels in the Metroplex, and this one is at the top of the list.  Service was faultless, and the rooms are comfortable and attractive with small details you don't usually find in this hotel class.  Most of the rooms are far enough from the freeway to be quiet enough for sleeping.  The common areas were well attended to and attractive.  I love the fact that they have (and apparently enforce) rules for use of the property (pool, breakfast area, etc.) that are designed to enhance the experience for all guests, rather than catering to the rude ones.  The experience was worth braving the hideous traffic snarls caused by the closure of I-35 at Loop 820.  Come in the back way via 820, exiting on Mark IV Parkway to avoid the worst of it.   This is our new go-to one-night hotel in Fort Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We've stayed in numerous HI Express hotels in the Metroplex, and this one is at the top of the list.  Service was faultless, and the rooms are comfortable and attractive with small details you don't usually find in this hotel class.  Most of the rooms are far enough from the freeway to be quiet enough for sleeping.  The common areas were well attended to and attractive.  I love the fact that they have (and apparently enforce) rules for use of the property (pool, breakfast area, etc.) that are designed to enhance the experience for all guests, rather than catering to the rude ones.  The experience was worth braving the hideous traffic snarls caused by the closure of I-35 at Loop 820.  Come in the back way via 820, exiting on Mark IV Parkway to avoid the worst of it.   This is our new go-to one-night hotel in Fort Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r382986945-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>382986945</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Golf trip</t>
+  </si>
+  <si>
+    <t>I save vacation time to watch my daughter play in golf tournaments. Since early starts require us to be at the course by 645 am, this was a perfect location to stay. I'm not sure, but I think that this hotel is around 7 years old, but it doesn't show any signs of aging. Inside and out, the appearance is outstanding and this location is walking distance to several restaurants, fulfilling any appetite. The staff was very personable, and was eager to make our stay enjoyable. The room was perfect, allowing us both to sleep through the night, and have any excellent buffet to enjoy before heading to the course. This will be one hotel that we will use again and again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I save vacation time to watch my daughter play in golf tournaments. Since early starts require us to be at the course by 645 am, this was a perfect location to stay. I'm not sure, but I think that this hotel is around 7 years old, but it doesn't show any signs of aging. Inside and out, the appearance is outstanding and this location is walking distance to several restaurants, fulfilling any appetite. The staff was very personable, and was eager to make our stay enjoyable. The room was perfect, allowing us both to sleep through the night, and have any excellent buffet to enjoy before heading to the course. This will be one hotel that we will use again and again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r379082515-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>379082515</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We spent the night here on the way to San Antonio. The rooms are generously large with a couch, chair, and coffee table with 2 queen beds.  We comfortably fit 3 with no issues.  The hotel is new, clean, and nicely decorated.  The pillows were nice and fluffy.  The only drawback is that the walls are thin and you can here the traffic outside.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r365225965-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>365225965</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>The construction on I-35 makes access to the hotel a little bit messy but it's not bad.  The hotel was clean, staff was friendly.  The check in was very fast. The shower curtain was not long enough for the shower.  The coffee maker in the room did not work in addition to a light.  I didn't call for anyone to come repair since I was only there for one night.  The free breakfast was good.   Hotel was clean.  Not bad for a one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Mitzi M, Director of Sales at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>The construction on I-35 makes access to the hotel a little bit messy but it's not bad.  The hotel was clean, staff was friendly.  The check in was very fast. The shower curtain was not long enough for the shower.  The coffee maker in the room did not work in addition to a light.  I didn't call for anyone to come repair since I was only there for one night.  The free breakfast was good.   Hotel was clean.  Not bad for a one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r364227097-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>364227097</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Great hotel. Nice. New!</t>
+  </si>
+  <si>
+    <t>This place is new. Really nice hotel.  Everyone very nice and helpful. Free breakfast.  Free dinner Monday through Thursday?  What?  Very pleasant stay.   Some issues with shower head and other design flaws of the room. Spend some money on small things MoreShow less</t>
+  </si>
+  <si>
+    <t>Mitzi M, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2016</t>
+  </si>
+  <si>
+    <t>This place is new. Really nice hotel.  Everyone very nice and helpful. Free breakfast.  Free dinner Monday through Thursday?  What?  Very pleasant stay.   Some issues with shower head and other design flaws of the room. Spend some money on small things More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r360909994-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>360909994</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay..pet friendly</t>
+  </si>
+  <si>
+    <t>We stayed two nights at this property and found the accommodations to be very comfortable.  Check in was smooth and desk clerk was friendly.  Our room was quiet, clean and comfortable.  Breakfast area was bright and cheerful, and food was nicely presented.  Very convenient to interstate.  Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Mitzi M, Director of Sales at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed two nights at this property and found the accommodations to be very comfortable.  Check in was smooth and desk clerk was friendly.  Our room was quiet, clean and comfortable.  Breakfast area was bright and cheerful, and food was nicely presented.  Very convenient to interstate.  Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r360842757-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>360842757</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>I'll be honest. When we drove up to this Holiday Inn, I was nervous. It's beautiful, but it's also on the 35, right next to tons of construction.No need to be nervous. The road noise is minimal. I'm here with several teachers and students. Check in was easy. That's always nice. The facility is pretty, the service is stellar and the rooms are super comfy. We'll definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'll be honest. When we drove up to this Holiday Inn, I was nervous. It's beautiful, but it's also on the 35, right next to tons of construction.No need to be nervous. The road noise is minimal. I'm here with several teachers and students. Check in was easy. That's always nice. The facility is pretty, the service is stellar and the rooms are super comfy. We'll definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r360666974-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>360666974</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Fun in Ft Worth</t>
+  </si>
+  <si>
+    <t>A great hotel with very comfortable beds.  All staff were friendly and helpful.  We took advantage of the free shuttle (within five miles), also.  The fresh baked cookies in the evening were a treat and one evening a free burger and beer dinner!!MoreShow less</t>
+  </si>
+  <si>
+    <t>A great hotel with very comfortable beds.  All staff were friendly and helpful.  We took advantage of the free shuttle (within five miles), also.  The fresh baked cookies in the evening were a treat and one evening a free burger and beer dinner!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r338684523-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>338684523</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>One night stop over</t>
+  </si>
+  <si>
+    <t>We were only passing through but the hotel was everything we expect out of an Express. The service was perfect, the king room we had was more than spacious and the breakfast was hot and tasty. Booking through Trip Advisor was simple and fast.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r336084541-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>336084541</t>
@@ -468,7 +844,7 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Mitzi M, Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded January 2, 2016</t>
+    <t>Mitzi M, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded January 2, 2016</t>
   </si>
   <si>
     <t>Responded January 2, 2016</t>
@@ -477,10 +853,7 @@
     <t>We booked through trip advisor and needed to cancel the reservation. After being on hold for an extended time, Holiday inn connected us to Orbitz, which is not who we used. In trying to resolve this, we were transferred and disconnected multiple times. Trip advisor wants to charge us $131 cancellation fee on a $141 room. Kudos to the management at Holiday Inn who went out of their way to help us. We will continue to use Holiday Inn Express. However, we will never again use Trip Advisor nor any other third party to book a room. Call directly! It's amazing how easily they will charge your card and take your money but to get I back takes an act of God. More</t>
   </si>
   <si>
-    <t>Irina I</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r328611614-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r328611614-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>328611614</t>
@@ -498,7 +871,7 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Mitzi M, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded November 24, 2015</t>
+    <t>Mitzi M, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded November 24, 2015</t>
   </si>
   <si>
     <t>Responded November 24, 2015</t>
@@ -507,10 +880,7 @@
     <t>The rooms are  clean, the staff is friendly, great food variety for breakfast, and super fast check out! Express is the name! My favorite chain to use when traveling by car, with the entire family, any swasonMore</t>
   </si>
   <si>
-    <t>Brian V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r317213308-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r317213308-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>317213308</t>
@@ -528,7 +898,7 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r317211965-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r317211965-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>317211965</t>
@@ -540,10 +910,7 @@
     <t>This review is not so much about the hotel as a heads up about the MAJOR road construction that is be done on I-35. The hotel was great as always. Holiday Inn Express' are my go to hotel when traveling.  I have not been disappointed as to date.</t>
   </si>
   <si>
-    <t>Janet W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r316007582-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r316007582-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>316007582</t>
@@ -558,10 +925,7 @@
     <t>They was a very nice surprise. The room with sofa bed is huge. Fridge and microwave . Bed is extremely comfortable . Little bit of freeway noise. Good blackout curtains help to keep lights out and noise down. Friendly service and small complaint about the tub draining was immediately dealt with . I did not have the breakfast but it is available. Would definitely stay here again when in the area</t>
   </si>
   <si>
-    <t>SSSandMar</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r315206993-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r315206993-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>315206993</t>
@@ -576,10 +940,7 @@
     <t>I love Holiday Inn Express &amp; Suites-HIE!!! The Front desk crew is amazing!! Especially Maria!! Stay when you can!!She is awesome.  Exercise room nice. The rooms are clean .She was very concerned about my    stay and they have POSTCARDS!!! Fabulous!!!</t>
   </si>
   <si>
-    <t>Cheergrandma</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r294543809-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r294543809-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>294543809</t>
@@ -597,10 +958,7 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Margie W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r284400753-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r284400753-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>284400753</t>
@@ -618,10 +976,7 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>BronteReed</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r284027659-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r284027659-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>284027659</t>
@@ -639,10 +994,7 @@
     <t>We stayed at this hotel en route to Omaha for the College World Series.  Check-in was quick and the clerks were friendly and efficient.  They serve a reception with drinks in early evening, but unfortunately we missed it.  However, there were plenty of options of restaurants around us, including Joe's Crab Shack, Bostons, Chilis, several TexMex and other options all within 0-4 blocks.  There is also a Starbucks in the complex area.  Breakfast was standard HGIE fare, but was fresh and well-stocked.  Scrambled eggs, boiled eggs, turkey and regular sausage, biscuits and gravy were among some of the hot items.  Our room was clean and fresh smelling and we had ample room in our King Suite.  We visited the indoor pool and whirlpool, but we did not use it as it was rather late once we got back from dinner.  We tried to stay here on our return visit, but it was booked.  No surprise - great bang for your buck.  There is some construction in the area, but once that clears up, this should be a nearly flawless option in hotels.More</t>
   </si>
   <si>
-    <t>AccidentalTexan</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r283469077-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r283469077-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>283469077</t>
@@ -657,10 +1009,7 @@
     <t xml:space="preserve">I needed a place to stay in the area for my son's golf tournament, and was very pleased with this choice. It's a nice area with plenty of restaurants nearby. We walked down the street to Joe's Crab Shack. The lady at the front desk was very friendly and welcoming, the room extremely clean (and trust me I'm picky), and nice and quiet away from the highway. </t>
   </si>
   <si>
-    <t>FlashRiley</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r280258454-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r280258454-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>280258454</t>
@@ -675,7 +1024,7 @@
     <t>I stayed here with my elderly parents for three nights in June.  We had a reservation with another hotel nearby, but when we arrived, they did not have a handicapped accessible room, which my father needed.  It was late and we were tired when we arrived at this Holiday Inn Express.  Cherokee at the front desk was quickly able to verify that they could accommodate us with a handicapped room, and happily went out of her way to show us the room to be sure it met my father's unique needs.  The hotel is clean, quiet and has a wonderful breakfast buffet.  We will definitely stay again!MoreShow less</t>
   </si>
   <si>
-    <t>Mitzi M, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded June 15, 2015</t>
+    <t>Mitzi M, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded June 15, 2015</t>
   </si>
   <si>
     <t>Responded June 15, 2015</t>
@@ -684,22 +1033,25 @@
     <t>I stayed here with my elderly parents for three nights in June.  We had a reservation with another hotel nearby, but when we arrived, they did not have a handicapped accessible room, which my father needed.  It was late and we were tired when we arrived at this Holiday Inn Express.  Cherokee at the front desk was quickly able to verify that they could accommodate us with a handicapped room, and happily went out of her way to show us the room to be sure it met my father's unique needs.  The hotel is clean, quiet and has a wonderful breakfast buffet.  We will definitely stay again!More</t>
   </si>
   <si>
-    <t>bigbubbapk</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r275135158-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r275135158-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>275135158</t>
   </si>
   <si>
-    <t>May 27, 2015</t>
-  </si>
-  <si>
-    <t>CestJacque</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r273204138-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Great, clean accommodation.!!</t>
+  </si>
+  <si>
+    <t>My wife &amp; I stayed here earlier this month.  Very clean rooms, comfortable beds.   Staff very helpful and professional.   Definitely recommend this hotel for relaxing and seeing family and friends.  Very accommodating facility.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r273204138-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>273204138</t>
@@ -714,10 +1066,7 @@
     <t>I have to say that this is the most contemporary, well-maintained and efficiently run Holiday Inn Express in which I have stayed.The decor is very chic, the staff friendly, and it has all of the usual HI-X amenities, as well as a Manager's Evening Social at least one day a week...how fun!The location of this particular hotel is also very convenient to all of the Ft. Worth attractions and just a short hop down the Expressway to DFW Airport, Six Flags and Dallas...all-in-all, my new favorite place to stay in the Metroplex:-)</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r263825731-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r263825731-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>263825731</t>
@@ -735,10 +1084,7 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>scottrm612</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r263799934-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r263799934-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>263799934</t>
@@ -750,10 +1096,7 @@
     <t>Good clean hotel. Friendly staff. Breakfast buffet was also OK. Hot eggs, bacon, sausage. Cold cereals, bagels muffins etc. Work out room had only one working treadmill. The other was being repaired. It had other equipment though. Pool looked nice, was indoor.</t>
   </si>
   <si>
-    <t>SLP94</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r250912177-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r250912177-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>250912177</t>
@@ -776,7 +1119,7 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Mitzi M, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded January 26, 2015</t>
+    <t>Mitzi M, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded January 26, 2015</t>
   </si>
   <si>
     <t>Responded January 26, 2015</t>
@@ -790,10 +1133,7 @@
 And to top all that off the staff didn't even clean our room until after 3pm and this not a big hotel. We had been up since 3am to get ready for the show and were really tired. So we had to sit outside the hotel and wait until the room was cleaned. All we wanted to do was take...My family stayed here while we were showing at the Ft. Worth stock show. It was easy on/off the highway and only 10 minutes from the Will Rogers Complex. But unfortunately that is the best I can say for this hotel. There were several places to eat near by.When we checked in no one at the reservations desk. We had to wait and when she came out it was obviously she wasn't excited about her job. She wasn't rude but she wasn't going to go above and beyond in her job. The beds were not comfortable at all. They were hard.The hotel walls did not drown out the highway traffic noise or the noise between rooms. I heard our neighbors for over an hour and they were not yelling or having a party. Just talking. We ended up having to move rooms because the faucet in the shower did not go all the way to hot. We informed the staff and it was not fixed and they gave us another room. Luckily it was just across the hallway. And to top all that off the staff didn't even clean our room until after 3pm and this not a big hotel. We had been up since 3am to get ready for the show and were really tired. So we had to sit outside the hotel and wait until the room was cleaned. All we wanted to do was take a nap. Overall, if I wanted to stay just one night this would probably be an okay hotel but for multiple nights I wouldn't stay here.More</t>
   </si>
   <si>
-    <t>Cat_9079</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r240134061-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r240134061-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>240134061</t>
@@ -811,10 +1151,7 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>gyvette59</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r210735591-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r210735591-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>210735591</t>
@@ -829,7 +1166,7 @@
     <t>Friendly and accommodating staff. The hotel was clean, and the room was nice and equipped with everything necessary to make your stay comfortable. Close to restaurants but lots of construction in the area. I would stay here again!MoreShow less</t>
   </si>
   <si>
-    <t>Mitzi M, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded June 19, 2014</t>
+    <t>Mitzi M, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded June 19, 2014</t>
   </si>
   <si>
     <t>Responded June 19, 2014</t>
@@ -838,10 +1175,7 @@
     <t>Friendly and accommodating staff. The hotel was clean, and the room was nice and equipped with everything necessary to make your stay comfortable. Close to restaurants but lots of construction in the area. I would stay here again!More</t>
   </si>
   <si>
-    <t>armypilot44</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r206556721-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r206556721-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>206556721</t>
@@ -859,7 +1193,7 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded June 6, 2014</t>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded June 6, 2014</t>
   </si>
   <si>
     <t>Responded June 6, 2014</t>
@@ -868,10 +1202,7 @@
     <t>If you're staying in the area for  few nights this is the place.  This was my second trip to the area that lasted 2 weeks of staying in the hotel.  It is definitely above average, but nothing exceptional.  The main reason why we stay here as opposed to 20 min closer to our work is the location to restaurants and bars.More</t>
   </si>
   <si>
-    <t>Misty M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r202562910-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r202562910-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>202562910</t>
@@ -889,7 +1220,7 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Mitzi M, Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded May 7, 2014</t>
+    <t>Mitzi M, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded May 7, 2014</t>
   </si>
   <si>
     <t>Responded May 7, 2014</t>
@@ -898,10 +1229,124 @@
     <t>I had to stay at this hotel while my husband attended a paint class, and the ladies  at the hotel was very nice.  They helped me with anything I needed, and since my husband was in class all day i hung out at the hotel.  These wonderful ladies made sure i did'nt want for anything.  They are pet friendly which was such a big help and for the first time during my stay at a hotel their pool was 24 hrs.  This is an exceptional plus and I will let everyone back home in Oklahoma know just how wonderful the women of this hotel made my three day stay into a great vacation.More</t>
   </si>
   <si>
-    <t>Glon Drack</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r188586713-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r198557249-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>198557249</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Pretty good...</t>
+  </si>
+  <si>
+    <t>We had enough room, the front desk workers were friendly. There was an evening reception with pizza( which was not really warm), but nice effort...Breakfast so-so. Biscuits hard. Eggs watery, but pretty typical of hotel fare.Was a quick overnight stop, so I'd rate it as Good.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Mitzi M, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded April 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2014</t>
+  </si>
+  <si>
+    <t>We had enough room, the front desk workers were friendly. There was an evening reception with pizza( which was not really warm), but nice effort...Breakfast so-so. Biscuits hard. Eggs watery, but pretty typical of hotel fare.Was a quick overnight stop, so I'd rate it as Good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r196405152-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>196405152</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love this place! </t>
+  </si>
+  <si>
+    <t>My girlfriend and I were traveling through Texas this past week, and we stayed at this hotel about 3 or 4 days ago and we thoroughly enjoyed it! Not only was the staff the friendliest I have encountered in awhile, but the hotel was also very nice and extremely clean. Breakfast was great, and the beds were very comfortable. I liked the fact that there was a wide selection of great restaurants to choose from.   They took care of us very well and we had a great experience! I highly recommend this hotel to anyone, and I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>My girlfriend and I were traveling through Texas this past week, and we stayed at this hotel about 3 or 4 days ago and we thoroughly enjoyed it! Not only was the staff the friendliest I have encountered in awhile, but the hotel was also very nice and extremely clean. Breakfast was great, and the beds were very comfortable. I liked the fact that there was a wide selection of great restaurants to choose from.   They took care of us very well and we had a great experience! I highly recommend this hotel to anyone, and I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r195835983-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>195835983</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Nice, Neat and Almost Home Sweet Home</t>
+  </si>
+  <si>
+    <t>This hotel was chosen because of our desire to be close to family we were visiting. We were not familiar with the surroundings but once we got there we realized all the comforts of home - minus the mattress - were available within the room and hotel property.  The room was clean and I am a clean freak and bed-bug free!! Believe me it was the first thing I checked because I am a "hotel snob" when I am not on a budget or out of options. There was a microwave and mini-fridge which was convenient especially when travelling with children. This is the place to stay if you need to factor in economy, family, and restaurants and activities nearby. Aside from the uncomfortable beds and the noise from other guests, this location was ideal. Also, it offered a wonderful continental breakfast: egg-n-cheese omelets, hard-bolied eggs, scrambled eggs, turkey sausage, pork sausage, bacon, fresh pancakes, waffles, bagel asst., croissants, asst. muffins, cereal and flavored milks, juice, coffee and tea. This is the best "continental breakfast" array I have seen. I would definitely recommend and come back when visiting family!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Mitzi M, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was chosen because of our desire to be close to family we were visiting. We were not familiar with the surroundings but once we got there we realized all the comforts of home - minus the mattress - were available within the room and hotel property.  The room was clean and I am a clean freak and bed-bug free!! Believe me it was the first thing I checked because I am a "hotel snob" when I am not on a budget or out of options. There was a microwave and mini-fridge which was convenient especially when travelling with children. This is the place to stay if you need to factor in economy, family, and restaurants and activities nearby. Aside from the uncomfortable beds and the noise from other guests, this location was ideal. Also, it offered a wonderful continental breakfast: egg-n-cheese omelets, hard-bolied eggs, scrambled eggs, turkey sausage, pork sausage, bacon, fresh pancakes, waffles, bagel asst., croissants, asst. muffins, cereal and flavored milks, juice, coffee and tea. This is the best "continental breakfast" array I have seen. I would definitely recommend and come back when visiting family!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r195662927-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>195662927</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Very nice place to stay.</t>
+  </si>
+  <si>
+    <t>I stayed here on a recent business trip and needless to say I was a bit nervous based on some of the reviews I read.  I don't know where the complainers stay because this is a GREAT hotel.  My room was spotless, the bed was clean and comfortable.  The breakfast was decent and the dinner they offer that included free beer from 5-7pm was even better.  I look forward to returning here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here on a recent business trip and needless to say I was a bit nervous based on some of the reviews I read.  I don't know where the complainers stay because this is a GREAT hotel.  My room was spotless, the bed was clean and comfortable.  The breakfast was decent and the dinner they offer that included free beer from 5-7pm was even better.  I look forward to returning here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r191279252-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>191279252</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Dishonest and Unfriendly</t>
+  </si>
+  <si>
+    <t>Booked at the hotel after a hotel employee told me that they were "15 minutes" from the Alliance Airport.  It turns out that the traffic in the area made any location at least 45 minutes to a hour away from the hotel.  When I couldn't make it back on a lunch break due to traffic, I called to tell them that I wanted to check out.  They told me that if I arrived after the 12pm check out I'd be charged for an extra night.  Due to the hour drive each way I was unable to make it during an hour lunch break.  Manager Mitzi was unfriendly and unwilling to assist me.  Horrible customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Booked at the hotel after a hotel employee told me that they were "15 minutes" from the Alliance Airport.  It turns out that the traffic in the area made any location at least 45 minutes to a hour away from the hotel.  When I couldn't make it back on a lunch break due to traffic, I called to tell them that I wanted to check out.  They told me that if I arrived after the 12pm check out I'd be charged for an extra night.  Due to the hour drive each way I was unable to make it during an hour lunch break.  Manager Mitzi was unfriendly and unwilling to assist me.  Horrible customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r188586713-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>188586713</t>
@@ -922,10 +1367,7 @@
     <t>Stayed here for one night on business as it was close to the Bureau of Engraving and Printing.  There is some major construction going on on Route 820 which makes getting to the hotel a little tricky, but it can't be all that hard if someone like myself who has never been to Fort Worth figured it out.  Front desk staff were very efficient and friendly.   I had a king room and it was enormous.  Large bathroom with good shower.  Comfortable bed sitting area, desk, fridge, microwave and coffee maker.  Free Wifi was nice.  Shower had good pressure and sink stopper actually stopped water (a rarity in my experience) so shaving was easy.     Hot breakfast in the morning was good with eggs, sausage, fruits, cereal, pastries and even a machine that makes pancakes for you.  Woman manning the buffet seemed to do a good job keeping everything stocked.      Would stay here again.More</t>
   </si>
   <si>
-    <t>Texan_2006</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r181019712-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r181019712-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>181019712</t>
@@ -943,10 +1385,7 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>John T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r164709153-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r164709153-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>164709153</t>
@@ -964,7 +1403,7 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded July 5, 2013</t>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded July 5, 2013</t>
   </si>
   <si>
     <t>Responded July 5, 2013</t>
@@ -973,10 +1412,7 @@
     <t>18 days w/9 days of no TV/Electricity shutting off/on. No soap dish in shower. No floor mat in shower finally got only after I told Mgr nearly falling several times. Support staff refused to speak English &amp; could not understand English. Food quality preparation extremely poor, biscuits hard &amp; dry, gravy was soup like, no Microwave to warm lukewarm coffee, dining room kept at very uncomfortable 71/72 degrees. Safety/Security issues w/homeless/illegals entry by back door. Mgr has very poor customer communication skills, refused to provide owner/supervisor contact information. Refused to adjust bill for lack of TV service for 9 days.More</t>
   </si>
   <si>
-    <t>badman525</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r158938223-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r158938223-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>158938223</t>
@@ -994,10 +1430,7 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>TxQMike</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r158154915-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r158154915-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>158154915</t>
@@ -1012,7 +1445,7 @@
     <t>Pretty hotel, clean, well decorated, great staff. But for the price (which is not bad) you got a tiny tiny room and not any breakfast items....donut, muffin, nothing. Not that I got to a hotel for its breakfast but for the price and size of the room ya gotta get something.MoreShow less</t>
   </si>
   <si>
-    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded May 3, 2013</t>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded May 3, 2013</t>
   </si>
   <si>
     <t>Responded May 3, 2013</t>
@@ -1021,10 +1454,7 @@
     <t>Pretty hotel, clean, well decorated, great staff. But for the price (which is not bad) you got a tiny tiny room and not any breakfast items....donut, muffin, nothing. Not that I got to a hotel for its breakfast but for the price and size of the room ya gotta get something.More</t>
   </si>
   <si>
-    <t>Sue L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r152112565-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r152112565-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>152112565</t>
@@ -1045,10 +1475,7 @@
     <t>Eleven other women and I had to attend a conference in Fort Worth and found the hotel on line.  Of course on line everything always looks great but when we got to the hotel we found that it was really as good as everything we had viewed and read.  The people at the front desk was friendly, helpful, and informative.  They had great smiles and made us feel right at home.  The rooms themselves were extremely nice, clean, and more room than we had expected.  The complimentary breakfast was very good. (Good enough that we didn't go to Cracker Barrel where we usually go for breakfast!!)  We would definitely return to this hotel if we go back to Fort Worth.More</t>
   </si>
   <si>
-    <t>Brenda O</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r148091856-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r148091856-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>148091856</t>
@@ -1066,10 +1493,7 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>FlyingEvilMonkey</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r146561443-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r146561443-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>146561443</t>
@@ -1084,7 +1508,7 @@
     <t>I knew things were gonna be bad when I was left at the airport for over an hour waiting for the shuttle. The rooms are alright but try to get a top floor. Not much soundproofing between floors. They advertise to bell training center attendees that they will have a shuttle available to and from the centre as well as within a five mile radius. Well here I am on Saturday with a day off and no shuttle to get me anywhere and a minimum two hour wait for a cab. Shuttle service has left me waiting for an hour twice and over a half hour numerous times with previous arrangements made. My colleagues who are staying at the best western have had zero problems with their shuttle. Go stay there. There are lots of restaurants near here but if you have a day off try to come up with some other way to see the sights.Also try to get up earlier and skip the breakfast they serve here. Yuck. I would gladly stay at a lower grade hotel if it meant I wouldn't be sitting here on a beautiful day in a new country with nothing to do but write this review. MoreShow less</t>
   </si>
   <si>
-    <t>texasmanager, Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded December 13, 2012</t>
+    <t>texasmanager, Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded December 13, 2012</t>
   </si>
   <si>
     <t>Responded December 13, 2012</t>
@@ -1093,10 +1517,7 @@
     <t>I knew things were gonna be bad when I was left at the airport for over an hour waiting for the shuttle. The rooms are alright but try to get a top floor. Not much soundproofing between floors. They advertise to bell training center attendees that they will have a shuttle available to and from the centre as well as within a five mile radius. Well here I am on Saturday with a day off and no shuttle to get me anywhere and a minimum two hour wait for a cab. Shuttle service has left me waiting for an hour twice and over a half hour numerous times with previous arrangements made. My colleagues who are staying at the best western have had zero problems with their shuttle. Go stay there. There are lots of restaurants near here but if you have a day off try to come up with some other way to see the sights.Also try to get up earlier and skip the breakfast they serve here. Yuck. I would gladly stay at a lower grade hotel if it meant I wouldn't be sitting here on a beautiful day in a new country with nothing to do but write this review. More</t>
   </si>
   <si>
-    <t>halsey11</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r144712814-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r144712814-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>144712814</t>
@@ -1114,16 +1535,10 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>This is an outstanding facility.  Everything is always neat and clean.  Meals served are above average.  It is easy to get to most everywhere in the Ft. Worth area.  We have stayed at this facility in the past and yet it always looks new.More</t>
   </si>
   <si>
-    <t>George65802</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r144590088-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r144590088-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>144590088</t>
@@ -1135,7 +1550,7 @@
     <t>As priority club platinum member, I enjoy the reserved parking spaces, the welcome letter in the check-in folder and most of all, I appreciate the acknowledgement. The property was clean inside and out and out and my room smelled great. Enjoy you stay, GeorgeMoreShow less</t>
   </si>
   <si>
-    <t>texasmanager, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded November 6, 2012</t>
+    <t>texasmanager, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded November 6, 2012</t>
   </si>
   <si>
     <t>Responded November 6, 2012</t>
@@ -1144,10 +1559,7 @@
     <t>As priority club platinum member, I enjoy the reserved parking spaces, the welcome letter in the check-in folder and most of all, I appreciate the acknowledgement. The property was clean inside and out and out and my room smelled great. Enjoy you stay, GeorgeMore</t>
   </si>
   <si>
-    <t>Debbie K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r142989994-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r142989994-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>142989994</t>
@@ -1162,7 +1574,7 @@
     <t>Our visit to Ft. Worth was for our son's wedding. Being that I have never had to deal with making arrangements for family and friends before or planning for a rehursal dinner. My first phone call with Kelly was professional, friendly, helpful and easy. She walked me through everything and made my job as mother of the groom a breeze. She helped set up room reservations, and a meeting room for the rehursal dinner. Once we got to the hotel, the staff was friendly, helpful, professional. They handled every need I had. My family and friends were treated like they were the most important people there. From Kelly to the front desk to the ladies who prepared our breakfast every morning to the cleaning staff. I say Thank you from the bottom my heart. You were all wonderful and if I could hug you all I would And that includes Hugo too.MoreShow less</t>
   </si>
   <si>
-    <t>texasmanager, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded October 18, 2012</t>
+    <t>texasmanager, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded October 18, 2012</t>
   </si>
   <si>
     <t>Responded October 18, 2012</t>
@@ -1171,10 +1583,7 @@
     <t>Our visit to Ft. Worth was for our son's wedding. Being that I have never had to deal with making arrangements for family and friends before or planning for a rehursal dinner. My first phone call with Kelly was professional, friendly, helpful and easy. She walked me through everything and made my job as mother of the groom a breeze. She helped set up room reservations, and a meeting room for the rehursal dinner. Once we got to the hotel, the staff was friendly, helpful, professional. They handled every need I had. My family and friends were treated like they were the most important people there. From Kelly to the front desk to the ladies who prepared our breakfast every morning to the cleaning staff. I say Thank you from the bottom my heart. You were all wonderful and if I could hug you all I would And that includes Hugo too.More</t>
   </si>
   <si>
-    <t>DDBQ</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141616108-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141616108-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>141616108</t>
@@ -1192,7 +1601,7 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>texasmanager, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded October 1, 2012</t>
+    <t>texasmanager, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded October 1, 2012</t>
   </si>
   <si>
     <t>Responded October 1, 2012</t>
@@ -1201,10 +1610,7 @@
     <t>Our family spent one night here.  We were very impressed with the front desk associate, Joanie Kazelis.  Ms. Joanie was kind, friendly, helpful, and an absolute professional.  She ought to be recognized and put in a position of leadership!  This motel is one of the cleanest establishments in which we have ever stayed.  The bathroom is beautiful and guests are provided with toiletries above &amp; beyond the typical soap or shampoo.  My husband was happily surprised to see "real" suit hangers! We will certainly tell everyone about this motel &amp; we will happily stay here again the next time we are in the area.More</t>
   </si>
   <si>
-    <t>nayashae</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141370837-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141370837-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>141370837</t>
@@ -1222,7 +1628,7 @@
     <t>The staff appears not interested in the consumers and in a hurry to get u out of their face.the hotel is clean but by far its definitely not a warming or friendly atmosphere. They double charge your credit card and are in no hurry to get it back to you. The hotel manager assures you that she will research and get back to u but these promises never come to passMore</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141044490-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r141044490-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>141044490</t>
@@ -1237,7 +1643,7 @@
     <t>I went to this hotel to have a slumber party for my daughters birthday. when i arrived, from the minute i walked thru the door my terrible experience started. The staff here was horrible. the lady on duty when i arrived was Joni. she was not friendly and when i asked for a early check in she felt the need to remindly me rudely that check in time was 3pm. i was already advised of this but prior to my booking the room. i was advised that check in was 3pm but if a room was available i would be able to check in as early as 12 noon. I didnt argue with the woman i just said that was fine and sat in the lounge until a room was available. later that day when all the girls arrived they decided to go swimming, we took the towels out of the restroom of the hotel and went down to the pool. after getting to the pool we discovered that the hotel provided pool towels. we didnt bother with them as we had already grabbed the towels from the room.  when we returned to the room, i had my daughter call downstairs to ask for more towels as the girls now needed to shower. when my daughter hung up, she said "mom, the lady was rude and told me she couldnt bring me towels and to come get them myself". Again,...I went to this hotel to have a slumber party for my daughters birthday. when i arrived, from the minute i walked thru the door my terrible experience started. The staff here was horrible. the lady on duty when i arrived was Joni. she was not friendly and when i asked for a early check in she felt the need to remindly me rudely that check in time was 3pm. i was already advised of this but prior to my booking the room. i was advised that check in was 3pm but if a room was available i would be able to check in as early as 12 noon. I didnt argue with the woman i just said that was fine and sat in the lounge until a room was available. later that day when all the girls arrived they decided to go swimming, we took the towels out of the restroom of the hotel and went down to the pool. after getting to the pool we discovered that the hotel provided pool towels. we didnt bother with them as we had already grabbed the towels from the room.  when we returned to the room, i had my daughter call downstairs to ask for more towels as the girls now needed to shower. when my daughter hung up, she said "mom, the lady was rude and told me she couldnt bring me towels and to come get them myself". Again, me trying to keep confusion down on her birthday, I told her, just go get the towels so ya'll can take showers. so wehn my dughter went to get towels, she stated Joni would only give her 2 big towels and no face towels. I then called downstairs yet again and advised the young lady that i had 5 girls at a slumber party that needed to showers and she told me and i quote: " i can give you a couple more towels, but make sure you dont take them home with you". i have never felt so disrespected in  my life. for her to imply that we were going to steal hotel towels.  i assured her that we would shower and bring the towels to the front desk as soon as we were finished. At this point im almost in tears im so furious but i still refused to go off as i have my daughter and her friends and dont want to go off and be the bad person. The lady joni advised me that they did not have much clean linen and that was why she was unable to provide the linen that was needed. i made my daughter open her birthday gift (a comforter set) and put sheets on the couch bed in order for some of the girls to sleep there.  when we woke up this morning and were getting dressed and preparing to leave. housekeeping knocks and bursts in while we are getting dressed and says dont you check out today? i said yes maam but check out is at 12 noon right? then she apologizes and walks away. after we were dressed and prepared to leave i walked out the door and noticed that my bill with all my personal information for my account was laying in the middle of the hallway. thats when i called corporate. the lady i spoke with on the phone did not appear to be interested but did contact the hotel staff and have them offer me a $30 discount. honestly, i would like to not have to pay for this experience at all. i would not accept a night free.they can have it. i would never stay nor recommend this hotel again.i stay at hotels often but this experience was horrific. they appear to be trying to save money because the issue with the towels and the note in the restroom that says re-use towels and the fact that we took a dvd player to watch movies and the hotel has a block on the tv that prevents u from watching movies as they would prefer you to buy theirs. ive never stayed at a hotel where the kids couldnt bring their own games and movies. needless to say if you are looking for top notch, THIS IS NOT IT!!!!!!!MoreShow less</t>
   </si>
   <si>
-    <t>texasmanager, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded September 27, 2012</t>
+    <t>texasmanager, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded September 27, 2012</t>
   </si>
   <si>
     <t>Responded September 27, 2012</t>
@@ -1246,10 +1652,7 @@
     <t>I went to this hotel to have a slumber party for my daughters birthday. when i arrived, from the minute i walked thru the door my terrible experience started. The staff here was horrible. the lady on duty when i arrived was Joni. she was not friendly and when i asked for a early check in she felt the need to remindly me rudely that check in time was 3pm. i was already advised of this but prior to my booking the room. i was advised that check in was 3pm but if a room was available i would be able to check in as early as 12 noon. I didnt argue with the woman i just said that was fine and sat in the lounge until a room was available. later that day when all the girls arrived they decided to go swimming, we took the towels out of the restroom of the hotel and went down to the pool. after getting to the pool we discovered that the hotel provided pool towels. we didnt bother with them as we had already grabbed the towels from the room.  when we returned to the room, i had my daughter call downstairs to ask for more towels as the girls now needed to shower. when my daughter hung up, she said "mom, the lady was rude and told me she couldnt bring me towels and to come get them myself". Again,...I went to this hotel to have a slumber party for my daughters birthday. when i arrived, from the minute i walked thru the door my terrible experience started. The staff here was horrible. the lady on duty when i arrived was Joni. she was not friendly and when i asked for a early check in she felt the need to remindly me rudely that check in time was 3pm. i was already advised of this but prior to my booking the room. i was advised that check in was 3pm but if a room was available i would be able to check in as early as 12 noon. I didnt argue with the woman i just said that was fine and sat in the lounge until a room was available. later that day when all the girls arrived they decided to go swimming, we took the towels out of the restroom of the hotel and went down to the pool. after getting to the pool we discovered that the hotel provided pool towels. we didnt bother with them as we had already grabbed the towels from the room.  when we returned to the room, i had my daughter call downstairs to ask for more towels as the girls now needed to shower. when my daughter hung up, she said "mom, the lady was rude and told me she couldnt bring me towels and to come get them myself". Again, me trying to keep confusion down on her birthday, I told her, just go get the towels so ya'll can take showers. so wehn my dughter went to get towels, she stated Joni would only give her 2 big towels and no face towels. I then called downstairs yet again and advised the young lady that i had 5 girls at a slumber party that needed to showers and she told me and i quote: " i can give you a couple more towels, but make sure you dont take them home with you". i have never felt so disrespected in  my life. for her to imply that we were going to steal hotel towels.  i assured her that we would shower and bring the towels to the front desk as soon as we were finished. At this point im almost in tears im so furious but i still refused to go off as i have my daughter and her friends and dont want to go off and be the bad person. The lady joni advised me that they did not have much clean linen and that was why she was unable to provide the linen that was needed. i made my daughter open her birthday gift (a comforter set) and put sheets on the couch bed in order for some of the girls to sleep there.  when we woke up this morning and were getting dressed and preparing to leave. housekeeping knocks and bursts in while we are getting dressed and says dont you check out today? i said yes maam but check out is at 12 noon right? then she apologizes and walks away. after we were dressed and prepared to leave i walked out the door and noticed that my bill with all my personal information for my account was laying in the middle of the hallway. thats when i called corporate. the lady i spoke with on the phone did not appear to be interested but did contact the hotel staff and have them offer me a $30 discount. honestly, i would like to not have to pay for this experience at all. i would not accept a night free.they can have it. i would never stay nor recommend this hotel again.i stay at hotels often but this experience was horrific. they appear to be trying to save money because the issue with the towels and the note in the restroom that says re-use towels and the fact that we took a dvd player to watch movies and the hotel has a block on the tv that prevents u from watching movies as they would prefer you to buy theirs. ive never stayed at a hotel where the kids couldnt bring their own games and movies. needless to say if you are looking for top notch, THIS IS NOT IT!!!!!!!More</t>
   </si>
   <si>
-    <t>Saskproud</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r137311154-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r137311154-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>137311154</t>
@@ -1270,10 +1673,106 @@
     <t>The staff at this hotel are so helpful and courteous.  The rooms seem brand new, the furniture is beautiful, the bathrooms are spotless and the decor is refreshing.  The breakfast selection was impressive but even more impressive was their evening manager's reception with free beer, wine and a full meal including salad, mashed potatoes and rib burgers!  There was no need for a restaurant so it stretches your dollar far.  I will be back as this is my Fort Worth hotel of choice for sure.   More</t>
   </si>
   <si>
-    <t>Imeldific44</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r118175341-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r135472966-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>135472966</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I was only here one night for business.  However, in that one night, I found this hotels accommodations to be excellent. The room was clean and comfortable, and the bathroom facilities were spotless. The staff was very pleasant and helpful. And for those looking to stretch their travel dollar a bit, the hot breakfast was good, if not better than, going to a restaurant. I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was only here one night for business.  However, in that one night, I found this hotels accommodations to be excellent. The room was clean and comfortable, and the bathroom facilities were spotless. The staff was very pleasant and helpful. And for those looking to stretch their travel dollar a bit, the hot breakfast was good, if not better than, going to a restaurant. I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r125394681-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>125394681</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Decent place - good location</t>
+  </si>
+  <si>
+    <t>Easy in and out location. Good access to things to do around the town. Plenty places to eat in the area and easy to get to anything else you may want. A small warning about Fort Worth in General (not exclusive to the hotel) Their water is horrible, smells and taste like a fish bowl everywhere you go.... bring/buy bottled water.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r124842858-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>124842858</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>We came into town to celebrate my fiance's daughters 14th birthday who lives in Fort Worth.  We wanted to find a hotel where we could have an ajoining room, an indoor pool and a place that accepted pets.  We got lucky and found this holiday inn express and it just happen to be less then 3 miles from their house.  The ajoining room was a king suite and the other room had 2 queens.  It was perfect for her and her friends.  The pool was open 24 hours.  The staff helped us by giving us forks and plates so the girls could have pizza and cake.  The rooms were very clean and spacious.  We were on the side facing I-35 and I did not notice any highway noise.  The breakfast in the morning was good.  There was ham, omlets, pancakes, biscuits and gravy and cinnamon rolls.  There are plenty of places to eat around the hotel and the hotel was very convenient to get to.  I will stay here again.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>We came into town to celebrate my fiance's daughters 14th birthday who lives in Fort Worth.  We wanted to find a hotel where we could have an ajoining room, an indoor pool and a place that accepted pets.  We got lucky and found this holiday inn express and it just happen to be less then 3 miles from their house.  The ajoining room was a king suite and the other room had 2 queens.  It was perfect for her and her friends.  The pool was open 24 hours.  The staff helped us by giving us forks and plates so the girls could have pizza and cake.  The rooms were very clean and spacious.  We were on the side facing I-35 and I did not notice any highway noise.  The breakfast in the morning was good.  There was ham, omlets, pancakes, biscuits and gravy and cinnamon rolls.  There are plenty of places to eat around the hotel and the hotel was very convenient to get to.  I will stay here again.  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r123878045-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>123878045</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Nice, big rooms-very clean</t>
+  </si>
+  <si>
+    <t>We've stayed here several times before while traveling through Ft. Worth.  It's very convenient on and off the freeway.  There are lots of places to eat in the area, from fast food to fine dining; whatever your wallet can stand.The rooms are very big, clean &amp;  comfortable.  Yes, it can be a bit noisy outside, but the property is right next to I-35W, so what can you expect?Breakfast is very much HIE food, but if you can't find something to eat, then go to Denny's.  It's fresh and the breakfast area is always clean and well stocked.We'll stay here again and again.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r120870250-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>120870250</t>
+  </si>
+  <si>
+    <t>11/21/2011</t>
+  </si>
+  <si>
+    <t>OK but nothing special</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for a few days while attending a wedding and thought the place was OK but nothing special.  Check-in was performed efficiently but the staff person seemed a bit disinterested.  The room was nicely decorated and clean and the beds were comfortable.  However, the room faced I-35 and was very noisy - you could constantly hear roadway noise. The room rate included a decent continental breakfast with several hot items as well  as the usual fare. There is a decent business center and a nice indoor pool with a hot tub. Access to the hotel was fairly straight-forward but getting back to Western Center Blvd and/or the highway was a bit difficult and confusing. You have to go west to a cross street then north to an intersection (with a light) on Western Center then east to the highway.  There are lots of good restaurants and other businesses in the immediate area.  The rate was competitive with other hotels in the area. Overall, a decent place to stay but nothing special.  I will probably try somewhere else when on my next trip to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Danny S, Revenue Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded December 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for a few days while attending a wedding and thought the place was OK but nothing special.  Check-in was performed efficiently but the staff person seemed a bit disinterested.  The room was nicely decorated and clean and the beds were comfortable.  However, the room faced I-35 and was very noisy - you could constantly hear roadway noise. The room rate included a decent continental breakfast with several hot items as well  as the usual fare. There is a decent business center and a nice indoor pool with a hot tub. Access to the hotel was fairly straight-forward but getting back to Western Center Blvd and/or the highway was a bit difficult and confusing. You have to go west to a cross street then north to an intersection (with a light) on Western Center then east to the highway.  There are lots of good restaurants and other businesses in the immediate area.  The rate was competitive with other hotels in the area. Overall, a decent place to stay but nothing special.  I will probably try somewhere else when on my next trip to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r118175341-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>118175341</t>
@@ -1291,10 +1790,7 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>PDXtraveler281</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r116543508-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r116543508-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>116543508</t>
@@ -1309,10 +1805,7 @@
     <t>Stayed here for one night.  It is a new hotel, and the room was very large, quiet and tastefully decorated.  It had a pool but I didn't use it.  The wireless connection was good, there was a desk and easy chair in the room.  Small fridge and microwave on their own counter.  Nice, upscale bathroom.  I arrived rather late from the airport, but there were several restaurants nearby open till midnite, so all worked out well. The free express breakfast was fine--typical Holiday Inn Express fare, including hot items.</t>
   </si>
   <si>
-    <t>ddubb43</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r115164093-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r115164093-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>115164093</t>
@@ -1330,10 +1823,7 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>JRN418</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r114649818-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r114649818-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>114649818</t>
@@ -1351,10 +1841,7 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>Dajo43</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r114272487-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r114272487-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>114272487</t>
@@ -1369,7 +1856,7 @@
     <t>We had no idea animals were allowed in this hotel until AFTER our credit card was charged and we saw a man walking his 2 dogs on our floor. Reservation agents should tell cusomers BEFORE they book that dogs have been in the beds.MoreShow less</t>
   </si>
   <si>
-    <t>texasmanager, General Manager at Holiday Inn Express Fort Worth I-35 Western Center, responded to this reviewResponded December 30, 2011</t>
+    <t>texasmanager, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded December 30, 2011</t>
   </si>
   <si>
     <t>Responded December 30, 2011</t>
@@ -1378,10 +1865,7 @@
     <t>We had no idea animals were allowed in this hotel until AFTER our credit card was charged and we saw a man walking his 2 dogs on our floor. Reservation agents should tell cusomers BEFORE they book that dogs have been in the beds.More</t>
   </si>
   <si>
-    <t>Saturndriver</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r109494164-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r109494164-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>109494164</t>
@@ -1402,10 +1886,7 @@
     <t>My wife and I have stayed here before.  We generally had a pleasant experience.  One thing we remembered about the hotel was the nice pool.  This time we stayed on a Friday night.  Big mistake.  The hotel was full of kids.  All night my wife heard kids running up and down the hallways and the pool was so crowded that neither of us wanted to take a swim.  It seemed that the parents didn't know where their kids were at night.  We also had our "Do not disturb" sign taken during the night.  So my advise is that the hotel is nice to stay on the weekdays but do not stay here on the weekends or the summer.More</t>
   </si>
   <si>
-    <t>aggieband</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r98186343-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r98186343-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>98186343</t>
@@ -1432,10 +1913,7 @@
 The biggest negative for this hotel is the horrible traffic situation that exists due to its proximity to the Loop 820/I-35W interchange. This is...I was looking for a place to stay for a long holiday weekend and needed to be close to the home of some friends in Saginaw. I forgot how close this hotel was to the Texas Motor Speedway and the Stockyards as well as how horrible the traffic is in the area of Loop 820 and I-35W. Most of the other guests were NASCAR types and had multiple kids, making use of the indoor pool or the morning breakfast buffet an impossibility. The parking situation is also not good, with the spaces being far too narrow for all of the duel-wheeled pickup trucks owned by the other guests. There are a number of nice restaurants nearby, many within walking distance. Waffle House, Joe's Crab Shack, Rosa's Cantina, Boston gourmet pizza, Starbucks, Whataburger, Popeyes, and McDonalds are all very close and on the opposite side of the freeway, within easy reach, are On the Border, Romano's Macaroni Grill, Chilis, Saltgrass steakhouse, MK's sushi, Braum's ice cream, Wendys, Genghis Mongolian Grill and several other Mexican restaurants. There are two nice public golf courses close by, The Club at Fossil Creek and Iron Horse, both of which are very highly rated and well-conditioned. Shopping is available at Northeast Mall in Hurst, about a five mile drive to the east.The biggest negative for this hotel is the horrible traffic situation that exists due to its proximity to the Loop 820/I-35W interchange. This is the worst highway in Dallas-Fort Worth and traffic headed south on I-35W is backed up for miles 24 hours a day. Unless you are a native (as I am) or frequent visitor and know how to get around using city streets and avoiding the freeway, this makes getting the short distance into Fort Worth a nightmare. Be sure to check to see if there are events scheduled at the Speedway or Stockyards before booking this hotel as the infrastructure of the city cannot handle the additional traffic from major events at  any of these venues. All-in-all, the hotel was acceptable, but it suffered in comparison to some of the other, much nicer places I stayed on this trip for the same or less money. It is not a bad hotel and the staff is alright, but the location is a detriment in terms of mobility and the parking situation is terrible. If you are a NASCAR fan, it is a great place to stay during race weekends; otherwise, find another option away from the crowds.More</t>
   </si>
   <si>
-    <t>dsgunn</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r89663430-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r89663430-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>89663430</t>
@@ -1453,10 +1931,7 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>DJPOSEY</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r80139680-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r80139680-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>80139680</t>
@@ -1474,10 +1949,7 @@
     <t>July 2010</t>
   </si>
   <si>
-    <t>markcook2289</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r76358630-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r76358630-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>76358630</t>
@@ -1495,10 +1967,193 @@
     <t>August 2010</t>
   </si>
   <si>
-    <t>TravelingPhD</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r17918683-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r74507139-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>74507139</t>
+  </si>
+  <si>
+    <t>08/09/2010</t>
+  </si>
+  <si>
+    <t>not your average HI Express</t>
+  </si>
+  <si>
+    <t>Stayed one night at this property and really enjoyed it. The rooms are HUGE, comfortable, clean and quiet. You can't hear the noise off I35. Flat screen tv and vintage mirror were great touches. Nice comfortable king bed with famour HIE pillows. The ballroom was super clean, with granite shower walls/vanity, tasteful wall paper and a shower drape. Bath products by HEI are great and always get the job done.Breakfast was good with fresh options. Didn't have to wait for 5 seconds to get anything replenished and the dinning room attendent was very friendly. Infact everyone, front desk, house keeping etc were very pleasant.No complains with this one at all. Stay here, you'll like it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night at this property and really enjoyed it. The rooms are HUGE, comfortable, clean and quiet. You can't hear the noise off I35. Flat screen tv and vintage mirror were great touches. Nice comfortable king bed with famour HIE pillows. The ballroom was super clean, with granite shower walls/vanity, tasteful wall paper and a shower drape. Bath products by HEI are great and always get the job done.Breakfast was good with fresh options. Didn't have to wait for 5 seconds to get anything replenished and the dinning room attendent was very friendly. Infact everyone, front desk, house keeping etc were very pleasant.No complains with this one at all. Stay here, you'll like it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r72340258-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>72340258</t>
+  </si>
+  <si>
+    <t>07/25/2010</t>
+  </si>
+  <si>
+    <t>Excellent Staff. Indoor Pool finally warm enough.</t>
+  </si>
+  <si>
+    <t>We have stayed here six times in 3 years. We come back here every time because the staff is so welcoming and it has a great, hot breakfast in a nice, well-lit room.  If my husband wheels in alone, the employee always offers to assist him in any way possible.  It is the only indoor pool in the area and they finally resolved the cold water temperature and humidity issue.  It is summer so that might be helping.  The wheelchair roll-in-shower is one of those acrylic premade kind. It  allows water to pool in the bathroom, but never once has the housekeeper complained over our pile of wet towels.  We tip her well of course. Ideally they could splurge for a tile shower with a better drain.  It is a quiet hotel, there are restaurants nearby, and it is affordably priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed here six times in 3 years. We come back here every time because the staff is so welcoming and it has a great, hot breakfast in a nice, well-lit room.  If my husband wheels in alone, the employee always offers to assist him in any way possible.  It is the only indoor pool in the area and they finally resolved the cold water temperature and humidity issue.  It is summer so that might be helping.  The wheelchair roll-in-shower is one of those acrylic premade kind. It  allows water to pool in the bathroom, but never once has the housekeeper complained over our pile of wet towels.  We tip her well of course. Ideally they could splurge for a tile shower with a better drain.  It is a quiet hotel, there are restaurants nearby, and it is affordably priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r56069900-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>56069900</t>
+  </si>
+  <si>
+    <t>02/15/2010</t>
+  </si>
+  <si>
+    <t>Please fix the pool heater!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel when visiting our son and his family. The hotel was clean, updated and the beds comfortable.  Their complimentary breakfast was wonderful. the staff were friendly and helpful. However; we picked this hotel because it had an indoor pool. We were unable to swim in it due to the water being very cold. It took most of our trip ( and then it still was too cold) for the heater to get fixed. this is a great hotel unless you want to swim!</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r52058110-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>52058110</t>
+  </si>
+  <si>
+    <t>12/28/2009</t>
+  </si>
+  <si>
+    <t>Dishonest and poor managment</t>
+  </si>
+  <si>
+    <t>This hotel has you sign a contract(which i never received or was informed about) that states if you smoke in the room you will be charged.  We were at the end of the hall by the exit door and smoked OUTSIDE but disposed of the ashes in a plastic cup instead of on the ground.  A week later with no notification or a copy of this paperwork i signed i saw on my banking statement a charge for $250 over the nightly fee.  I spoke with someone i thought was front desk personnel, she got me confused with another guest that may have smoked in there room so i asked her for the managers name she gave it to me however i found out later after i emailed corporate that SHE was actually the manager.  When management lies, you have to wonder how many others were charged for the same thing.  We checked in at 11pm after driving 12hrs!!!  We did NOT smoke in our room, and i do not believe that any hotel has a right to make an unauthorized charge!!!!  The room and hotel are not worth the money cheap renovation makes it appear a bit nicer than the usual less expensive hotel, the bed was not comfortable at all, and you run the risk of being charged for no reason.  The only good thing about this hotel was that they allowed pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>Danny S, General Manager at Holiday Inn Express &amp; Suites Fort Worth - Fossil Creek, responded to this reviewResponded December 29, 2011</t>
+  </si>
+  <si>
+    <t>This hotel has you sign a contract(which i never received or was informed about) that states if you smoke in the room you will be charged.  We were at the end of the hall by the exit door and smoked OUTSIDE but disposed of the ashes in a plastic cup instead of on the ground.  A week later with no notification or a copy of this paperwork i signed i saw on my banking statement a charge for $250 over the nightly fee.  I spoke with someone i thought was front desk personnel, she got me confused with another guest that may have smoked in there room so i asked her for the managers name she gave it to me however i found out later after i emailed corporate that SHE was actually the manager.  When management lies, you have to wonder how many others were charged for the same thing.  We checked in at 11pm after driving 12hrs!!!  We did NOT smoke in our room, and i do not believe that any hotel has a right to make an unauthorized charge!!!!  The room and hotel are not worth the money cheap renovation makes it appear a bit nicer than the usual less expensive hotel, the bed was not comfortable at all, and you run the risk of being charged for no reason.  The only good thing about this hotel was that they allowed pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r49042812-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>49042812</t>
+  </si>
+  <si>
+    <t>11/12/2009</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>The hotel was very nice.  The room was large and very quiet.  I have never seen a cleaner pool at a hotel but be warned that the water is quite cold for an indoor pool.  The only negative thing about the hotel is that my wife had to kill a couple of bugs in the room.  If I ever travel through the area again, I will defintely stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r37491064-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>37491064</t>
+  </si>
+  <si>
+    <t>08/12/2009</t>
+  </si>
+  <si>
+    <t>Great hotel - we WILL be back!</t>
+  </si>
+  <si>
+    <t>Everything was great.  Rooms clean, staff friendly, pool clean, wireless internet problem free, breakfast hot!  The hotel was VERY nice.  Yummy restaurants right next door and a large fitness center too if I remember right.  On the freeway but noise was never a problem, even sirens barely heard.  We will be coming back for our yearly stay.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r37149330-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>37149330</t>
+  </si>
+  <si>
+    <t>08/09/2009</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Comfortable Room!</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by how friendly the staff was at this HIE location.  We checked in around 11pm, and Buddy was very friendly in getting us checked in.  Our room was clean, very comfortable, and breakfast was free in the morning and lasted until 10am.  We had a tough time finding a place to park our 30 foot truck, but the hotel staff was friendly in helping us find a place to park it on property.  We highly recommend this HIE location!</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r35716260-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>35716260</t>
+  </si>
+  <si>
+    <t>07/24/2009</t>
+  </si>
+  <si>
+    <t>Best hotel ever!!!!!</t>
+  </si>
+  <si>
+    <t>I cannot say enough good things about this hotel!  It was brand spanking new and the room looked like a 4 star hotel, easily!  Everything was top-notch with plenty of extras!  It was sparkly clean also.  The kids loved that the indoor pool was open 24 hours!  For the money, I think we got a fantastic deal and everyone was very nice.  Oh yes, the biscuits and sausage gravy were yummy!!!!  Thanks for everything.  We will be back!</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r34188536-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>34188536</t>
+  </si>
+  <si>
+    <t>07/07/2009</t>
+  </si>
+  <si>
+    <t>Amazing Hotel Experience!</t>
+  </si>
+  <si>
+    <t>A friend and I stayed at this hotel (we're both teenagers), and our stay was beyond great. The hotel staff was friendly and very accomodating. The rooms were large adn very clean and the 24/7 pool was a huge plus for us!We will be telling all of our friends about this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r21162536-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>21162536</t>
+  </si>
+  <si>
+    <t>10/23/2008</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stayed here on our return trip to Minnesota from Corpus Christi. This is a newer area on the north side of town and we would love to come back and spend some time here to explore. Unfortunately, we were only here overnight. The room was very large for a standard room. The amenities were great with microwave and refrigerator, granite counter tops in the bathroom with slate tiles on on the walls and floors plus anything you could possibly need for toiletries. The room as well as the common areas of the hotel were very clean. Great breakfast with both hot and cold selections. Eggs were really good - not the runny or rubbery ones you get at many hotel breakfasts. My only complaint would be the rough sheets. I had a sunburn and it was torture sleeping on them. I was fine in the hotel we were in the night before, so it wasn't just the sunburn causing my discomfort. My husband agreed that they were rough as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>We stayed here on our return trip to Minnesota from Corpus Christi. This is a newer area on the north side of town and we would love to come back and spend some time here to explore. Unfortunately, we were only here overnight. The room was very large for a standard room. The amenities were great with microwave and refrigerator, granite counter tops in the bathroom with slate tiles on on the walls and floors plus anything you could possibly need for toiletries. The room as well as the common areas of the hotel were very clean. Great breakfast with both hot and cold selections. Eggs were really good - not the runny or rubbery ones you get at many hotel breakfasts. My only complaint would be the rough sheets. I had a sunburn and it was torture sleeping on them. I was fine in the hotel we were in the night before, so it wasn't just the sunburn causing my discomfort. My husband agreed that they were rough as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r17918683-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>17918683</t>
@@ -1519,10 +2174,7 @@
     <t>On our cross-country trek from CA to North Dakota to Louisiana, this was the very best hotel we stayed in.  It was the only one where I felt like the first person to be there (and I'm sure I wasn't).  It's great to find a hotel where everything is so clean.  There were no stray hairs, Doritos under the bed, dust piles in the corners, etc.  I couldn't imagine it being any cleaner and the decor is quite upscale as well.  Also, it's really quiet even though it's off the freeway.  Even though there was someone staying next door, we never heard anything.  The area has a lot of good chain restaurants too.  I'd love to visit again!More</t>
   </si>
   <si>
-    <t>nree</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r14448207-Holiday_Inn_Express_Fort_Worth_I_35_Western_Center-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d672597-r14448207-Holiday_Inn_Express_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>14448207</t>
@@ -2042,116 +2694,100 @@
       <c r="A2" t="n">
         <v>56207</v>
       </c>
-      <c r="B2" t="n">
-        <v>155643</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56207</v>
       </c>
-      <c r="B3" t="n">
-        <v>155644</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2163,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2182,37 +2818,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2224,200 +2860,182 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56207</v>
       </c>
-      <c r="B5" t="n">
-        <v>155645</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
+        <v>61</v>
+      </c>
+      <c r="P5" t="n">
         <v>4</v>
       </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56207</v>
       </c>
-      <c r="B6" t="n">
-        <v>155646</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56207</v>
       </c>
-      <c r="B7" t="n">
-        <v>155647</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2429,320 +3047,310 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56207</v>
       </c>
-      <c r="B8" t="n">
-        <v>155648</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56207</v>
       </c>
-      <c r="B9" t="n">
-        <v>155649</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>114</v>
-      </c>
       <c r="O9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56207</v>
       </c>
-      <c r="B10" t="n">
-        <v>155650</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56207</v>
       </c>
-      <c r="B11" t="n">
-        <v>73171</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
         <v>133</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>134</v>
       </c>
-      <c r="J11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>138</v>
-      </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>139</v>
-      </c>
-      <c r="X11" t="s">
-        <v>140</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56207</v>
       </c>
-      <c r="B12" t="n">
-        <v>155651</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2754,64 +3362,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56207</v>
       </c>
-      <c r="B13" t="n">
-        <v>155652</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
@@ -2822,61 +3426,53 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>160</v>
-      </c>
-      <c r="X13" t="s">
-        <v>161</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56207</v>
       </c>
-      <c r="B14" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2887,57 +3483,57 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
       <c r="Y14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56207</v>
       </c>
-      <c r="B15" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2948,63 +3544,65 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56207</v>
       </c>
-      <c r="B16" t="n">
-        <v>17782</v>
-      </c>
-      <c r="C16" t="s">
-        <v>174</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -3016,54 +3614,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56207</v>
       </c>
-      <c r="B17" t="n">
-        <v>47570</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3074,369 +3668,359 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56207</v>
       </c>
-      <c r="B18" t="n">
-        <v>155653</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56207</v>
       </c>
-      <c r="B19" t="n">
-        <v>155654</v>
-      </c>
-      <c r="C19" t="s">
-        <v>193</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56207</v>
       </c>
-      <c r="B20" t="n">
-        <v>50043</v>
-      </c>
-      <c r="C20" t="s">
-        <v>200</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
         <v>201</v>
       </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
         <v>202</v>
       </c>
-      <c r="J20" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>199</v>
-      </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56207</v>
       </c>
-      <c r="B21" t="n">
-        <v>155655</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>208</v>
       </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J21" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" t="s">
-        <v>211</v>
-      </c>
-      <c r="L21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>199</v>
-      </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56207</v>
       </c>
-      <c r="B22" t="n">
-        <v>155656</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
         <v>214</v>
       </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>215</v>
       </c>
-      <c r="J22" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>199</v>
-      </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>219</v>
-      </c>
-      <c r="X22" t="s">
-        <v>220</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56207</v>
       </c>
-      <c r="B23" t="n">
-        <v>155657</v>
-      </c>
-      <c r="C23" t="s">
-        <v>222</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3446,59 +4030,62 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56207</v>
       </c>
-      <c r="B24" t="n">
-        <v>155658</v>
-      </c>
-      <c r="C24" t="s">
-        <v>226</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
         <v>227</v>
       </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>228</v>
-      </c>
-      <c r="J24" t="s">
-        <v>229</v>
-      </c>
-      <c r="K24" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>232</v>
-      </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3506,57 +4093,57 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56207</v>
       </c>
-      <c r="B25" t="n">
-        <v>155656</v>
-      </c>
-      <c r="C25" t="s">
-        <v>222</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
         <v>233</v>
       </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>234</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>235</v>
       </c>
-      <c r="K25" t="s">
-        <v>236</v>
-      </c>
-      <c r="L25" t="s">
-        <v>237</v>
-      </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3567,42 +4154,42 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56207</v>
       </c>
-      <c r="B26" t="n">
-        <v>155659</v>
-      </c>
-      <c r="C26" t="s">
-        <v>239</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>240</v>
       </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>241</v>
-      </c>
-      <c r="J26" t="s">
-        <v>235</v>
       </c>
       <c r="K26" t="s">
         <v>242</v>
@@ -3614,362 +4201,334 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56207</v>
       </c>
-      <c r="B27" t="n">
-        <v>139050</v>
-      </c>
-      <c r="C27" t="s">
-        <v>244</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="X27" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y27" t="s">
         <v>252</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56207</v>
       </c>
-      <c r="B28" t="n">
-        <v>155660</v>
-      </c>
-      <c r="C28" t="s">
-        <v>254</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
         <v>255</v>
       </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>256</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>257</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y28" t="s">
         <v>258</v>
-      </c>
-      <c r="L28" t="s">
-        <v>259</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>260</v>
-      </c>
-      <c r="O28" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
-      <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56207</v>
       </c>
-      <c r="B29" t="n">
-        <v>39239</v>
-      </c>
-      <c r="C29" t="s">
-        <v>261</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
         <v>262</v>
       </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>263</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>264</v>
       </c>
-      <c r="K29" t="s">
-        <v>265</v>
-      </c>
-      <c r="L29" t="s">
-        <v>266</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>267</v>
-      </c>
-      <c r="X29" t="s">
-        <v>268</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56207</v>
       </c>
-      <c r="B30" t="n">
-        <v>155661</v>
-      </c>
-      <c r="C30" t="s">
-        <v>270</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
         <v>271</v>
       </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>272</v>
       </c>
-      <c r="J30" t="s">
+      <c r="X30" t="s">
         <v>273</v>
       </c>
-      <c r="K30" t="s">
+      <c r="Y30" t="s">
         <v>274</v>
-      </c>
-      <c r="L30" t="s">
-        <v>275</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>276</v>
-      </c>
-      <c r="O30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
-      <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
-        <v>277</v>
-      </c>
-      <c r="X30" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56207</v>
       </c>
-      <c r="B31" t="n">
-        <v>101380</v>
-      </c>
-      <c r="C31" t="s">
-        <v>280</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3978,503 +4537,413 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y31" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56207</v>
       </c>
-      <c r="B32" t="n">
-        <v>155662</v>
-      </c>
-      <c r="C32" t="s">
-        <v>290</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56207</v>
       </c>
-      <c r="B33" t="n">
-        <v>155663</v>
-      </c>
-      <c r="C33" t="s">
-        <v>298</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56207</v>
       </c>
-      <c r="B34" t="n">
-        <v>1819</v>
-      </c>
-      <c r="C34" t="s">
-        <v>305</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>312</v>
-      </c>
-      <c r="X34" t="s">
-        <v>313</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56207</v>
       </c>
-      <c r="B35" t="n">
-        <v>36043</v>
-      </c>
-      <c r="C35" t="s">
-        <v>315</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="J35" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56207</v>
       </c>
-      <c r="B36" t="n">
-        <v>123108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>322</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
       <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>328</v>
-      </c>
-      <c r="X36" t="s">
-        <v>329</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56207</v>
       </c>
-      <c r="B37" t="n">
-        <v>8151</v>
-      </c>
-      <c r="C37" t="s">
-        <v>331</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56207</v>
       </c>
-      <c r="B38" t="n">
-        <v>11965</v>
-      </c>
-      <c r="C38" t="s">
-        <v>339</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="J38" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4485,135 +4954,111 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56207</v>
       </c>
-      <c r="B39" t="n">
-        <v>155664</v>
-      </c>
-      <c r="C39" t="s">
-        <v>346</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>352</v>
-      </c>
-      <c r="X39" t="s">
-        <v>353</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56207</v>
       </c>
-      <c r="B40" t="n">
-        <v>155665</v>
-      </c>
-      <c r="C40" t="s">
-        <v>355</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="J40" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s">
-        <v>362</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>5</v>
       </c>
@@ -4625,144 +5070,120 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="Y40" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56207</v>
       </c>
-      <c r="B41" t="n">
-        <v>155666</v>
-      </c>
-      <c r="C41" t="s">
-        <v>364</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>369</v>
-      </c>
-      <c r="X41" t="s">
-        <v>370</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56207</v>
       </c>
-      <c r="B42" t="n">
-        <v>18624</v>
-      </c>
-      <c r="C42" t="s">
-        <v>372</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4770,160 +5191,124 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>378</v>
-      </c>
-      <c r="X42" t="s">
-        <v>379</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56207</v>
       </c>
-      <c r="B43" t="n">
-        <v>155667</v>
-      </c>
-      <c r="C43" t="s">
-        <v>381</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>388</v>
-      </c>
-      <c r="X43" t="s">
-        <v>389</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56207</v>
       </c>
-      <c r="B44" t="n">
-        <v>155668</v>
-      </c>
-      <c r="C44" t="s">
-        <v>391</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>351</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>388</v>
-      </c>
-      <c r="X44" t="s">
-        <v>389</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
@@ -4936,112 +5321,104 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="J45" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
-      </c>
-      <c r="P45" t="n">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="X45" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="Y45" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56207</v>
       </c>
-      <c r="B46" t="n">
-        <v>35819</v>
-      </c>
-      <c r="C46" t="s">
-        <v>406</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="J46" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5052,205 +5429,203 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>403</v>
-      </c>
-      <c r="X46" t="s">
-        <v>404</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56207</v>
       </c>
-      <c r="B47" t="n">
-        <v>155669</v>
-      </c>
-      <c r="C47" t="s">
-        <v>414</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="J47" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="K47" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s">
-        <v>420</v>
-      </c>
-      <c r="O47" t="s">
-        <v>54</v>
-      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
         <v>4</v>
       </c>
-      <c r="S47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>376</v>
+      </c>
+      <c r="X47" t="s">
+        <v>377</v>
+      </c>
       <c r="Y47" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56207</v>
       </c>
-      <c r="B48" t="n">
-        <v>155670</v>
-      </c>
-      <c r="C48" t="s">
-        <v>421</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>384</v>
+      </c>
+      <c r="O48" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="s">
-        <v>420</v>
-      </c>
-      <c r="O48" t="s">
-        <v>65</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>385</v>
+      </c>
+      <c r="X48" t="s">
+        <v>386</v>
+      </c>
       <c r="Y48" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56207</v>
       </c>
-      <c r="B49" t="n">
-        <v>155671</v>
-      </c>
-      <c r="C49" t="s">
-        <v>427</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="J49" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5259,473 +5634,465 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>394</v>
+      </c>
+      <c r="X49" t="s">
+        <v>395</v>
+      </c>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56207</v>
       </c>
-      <c r="B50" t="n">
-        <v>155672</v>
-      </c>
-      <c r="C50" t="s">
-        <v>434</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="J50" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="K50" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>403</v>
+      </c>
+      <c r="X50" t="s">
+        <v>404</v>
+      </c>
       <c r="Y50" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56207</v>
       </c>
-      <c r="B51" t="n">
-        <v>95528</v>
-      </c>
-      <c r="C51" t="s">
-        <v>441</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J51" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="K51" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="L51" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="X51" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="Y51" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56207</v>
       </c>
-      <c r="B52" t="n">
-        <v>155673</v>
-      </c>
-      <c r="C52" t="s">
-        <v>450</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="J52" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="K52" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s">
-        <v>362</v>
+        <v>61</v>
       </c>
       <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
         <v>4</v>
       </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>418</v>
+      </c>
+      <c r="X52" t="s">
+        <v>419</v>
+      </c>
       <c r="Y52" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56207</v>
       </c>
-      <c r="B53" t="n">
-        <v>38517</v>
-      </c>
-      <c r="C53" t="s">
-        <v>458</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="J53" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="K53" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="O53" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>418</v>
+      </c>
+      <c r="X53" t="s">
+        <v>419</v>
+      </c>
       <c r="Y53" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56207</v>
       </c>
-      <c r="B54" t="n">
-        <v>155674</v>
-      </c>
-      <c r="C54" t="s">
-        <v>466</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="J54" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="K54" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="O54" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>433</v>
+      </c>
+      <c r="X54" t="s">
+        <v>434</v>
+      </c>
       <c r="Y54" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56207</v>
       </c>
-      <c r="B55" t="n">
-        <v>155675</v>
-      </c>
-      <c r="C55" t="s">
-        <v>473</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="J55" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="K55" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="L55" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="O55" t="s">
-        <v>362</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56207</v>
       </c>
-      <c r="B56" t="n">
-        <v>155676</v>
-      </c>
-      <c r="C56" t="s">
-        <v>480</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="J56" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="K56" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="L56" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
@@ -5743,60 +6110,56 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56207</v>
       </c>
-      <c r="B57" t="n">
-        <v>155677</v>
-      </c>
-      <c r="C57" t="s">
-        <v>487</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="J57" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="K57" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="L57" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
         <v>5</v>
@@ -5806,72 +6169,2594 @@
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>455</v>
+      </c>
+      <c r="X57" t="s">
+        <v>456</v>
+      </c>
       <c r="Y57" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56207</v>
       </c>
-      <c r="B58" t="n">
-        <v>155678</v>
-      </c>
-      <c r="C58" t="s">
-        <v>495</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="J58" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="K58" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>463</v>
+      </c>
+      <c r="O58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" t="s">
+        <v>466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s">
+        <v>468</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>469</v>
+      </c>
+      <c r="X59" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>474</v>
+      </c>
+      <c r="K60" t="s">
+        <v>475</v>
+      </c>
+      <c r="L60" t="s">
+        <v>476</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>477</v>
+      </c>
+      <c r="O60" t="s">
+        <v>89</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>479</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>480</v>
+      </c>
+      <c r="J61" t="s">
+        <v>481</v>
+      </c>
+      <c r="K61" t="s">
+        <v>482</v>
+      </c>
+      <c r="L61" t="s">
+        <v>483</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>484</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>485</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>486</v>
+      </c>
+      <c r="J62" t="s">
+        <v>487</v>
+      </c>
+      <c r="K62" t="s">
+        <v>488</v>
+      </c>
+      <c r="L62" t="s">
+        <v>489</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>490</v>
+      </c>
+      <c r="X62" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>493</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>494</v>
+      </c>
+      <c r="J63" t="s">
+        <v>495</v>
+      </c>
+      <c r="K63" t="s">
+        <v>496</v>
+      </c>
+      <c r="L63" t="s">
+        <v>497</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>490</v>
+      </c>
+      <c r="X63" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>500</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
         <v>501</v>
+      </c>
+      <c r="J64" t="s">
+        <v>495</v>
+      </c>
+      <c r="K64" t="s">
+        <v>502</v>
+      </c>
+      <c r="L64" t="s">
+        <v>503</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>504</v>
+      </c>
+      <c r="X64" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>507</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>508</v>
+      </c>
+      <c r="J65" t="s">
+        <v>509</v>
+      </c>
+      <c r="K65" t="s">
+        <v>510</v>
+      </c>
+      <c r="L65" t="s">
+        <v>511</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>498</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>512</v>
+      </c>
+      <c r="X65" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>516</v>
+      </c>
+      <c r="J66" t="s">
+        <v>517</v>
+      </c>
+      <c r="K66" t="s">
+        <v>518</v>
+      </c>
+      <c r="L66" t="s">
+        <v>519</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>520</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>521</v>
+      </c>
+      <c r="X66" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>525</v>
+      </c>
+      <c r="J67" t="s">
+        <v>526</v>
+      </c>
+      <c r="K67" t="s">
+        <v>527</v>
+      </c>
+      <c r="L67" t="s">
+        <v>528</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>521</v>
+      </c>
+      <c r="X67" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>520</v>
+      </c>
+      <c r="O68" t="s">
+        <v>271</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>535</v>
+      </c>
+      <c r="X68" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>538</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>539</v>
+      </c>
+      <c r="J69" t="s">
+        <v>540</v>
+      </c>
+      <c r="K69" t="s">
+        <v>541</v>
+      </c>
+      <c r="L69" t="s">
+        <v>542</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>543</v>
+      </c>
+      <c r="O69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>535</v>
+      </c>
+      <c r="X69" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>545</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>546</v>
+      </c>
+      <c r="J70" t="s">
+        <v>547</v>
+      </c>
+      <c r="K70" t="s">
+        <v>548</v>
+      </c>
+      <c r="L70" t="s">
+        <v>549</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>535</v>
+      </c>
+      <c r="X70" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>551</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>552</v>
+      </c>
+      <c r="J71" t="s">
+        <v>553</v>
+      </c>
+      <c r="K71" t="s">
+        <v>554</v>
+      </c>
+      <c r="L71" t="s">
+        <v>555</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>556</v>
+      </c>
+      <c r="O71" t="s">
+        <v>271</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>557</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>558</v>
+      </c>
+      <c r="J72" t="s">
+        <v>559</v>
+      </c>
+      <c r="K72" t="s">
+        <v>560</v>
+      </c>
+      <c r="L72" t="s">
+        <v>561</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>563</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>564</v>
+      </c>
+      <c r="J73" t="s">
+        <v>565</v>
+      </c>
+      <c r="K73" t="s">
+        <v>566</v>
+      </c>
+      <c r="L73" t="s">
+        <v>567</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>568</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>569</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>570</v>
+      </c>
+      <c r="J74" t="s">
+        <v>571</v>
+      </c>
+      <c r="K74" t="s">
+        <v>572</v>
+      </c>
+      <c r="L74" t="s">
+        <v>573</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>574</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>575</v>
+      </c>
+      <c r="X74" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>578</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>579</v>
+      </c>
+      <c r="J75" t="s">
+        <v>580</v>
+      </c>
+      <c r="K75" t="s">
+        <v>581</v>
+      </c>
+      <c r="L75" t="s">
+        <v>582</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>583</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>584</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>585</v>
+      </c>
+      <c r="J76" t="s">
+        <v>586</v>
+      </c>
+      <c r="K76" t="s">
+        <v>587</v>
+      </c>
+      <c r="L76" t="s">
+        <v>588</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>583</v>
+      </c>
+      <c r="O76" t="s">
+        <v>89</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>589</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>590</v>
+      </c>
+      <c r="J77" t="s">
+        <v>591</v>
+      </c>
+      <c r="K77" t="s">
+        <v>592</v>
+      </c>
+      <c r="L77" t="s">
+        <v>593</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>594</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>595</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>596</v>
+      </c>
+      <c r="J78" t="s">
+        <v>597</v>
+      </c>
+      <c r="K78" t="s">
+        <v>598</v>
+      </c>
+      <c r="L78" t="s">
+        <v>599</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>600</v>
+      </c>
+      <c r="O78" t="s">
+        <v>89</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>601</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>602</v>
+      </c>
+      <c r="J79" t="s">
+        <v>603</v>
+      </c>
+      <c r="K79" t="s">
+        <v>604</v>
+      </c>
+      <c r="L79" t="s">
+        <v>605</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>600</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>606</v>
+      </c>
+      <c r="X79" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>609</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>610</v>
+      </c>
+      <c r="J80" t="s">
+        <v>611</v>
+      </c>
+      <c r="K80" t="s">
+        <v>612</v>
+      </c>
+      <c r="L80" t="s">
+        <v>613</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>614</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>616</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>617</v>
+      </c>
+      <c r="J81" t="s">
+        <v>618</v>
+      </c>
+      <c r="K81" t="s">
+        <v>619</v>
+      </c>
+      <c r="L81" t="s">
+        <v>620</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>621</v>
+      </c>
+      <c r="O81" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>623</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>624</v>
+      </c>
+      <c r="J82" t="s">
+        <v>625</v>
+      </c>
+      <c r="K82" t="s">
+        <v>626</v>
+      </c>
+      <c r="L82" t="s">
+        <v>627</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>628</v>
+      </c>
+      <c r="O82" t="s">
+        <v>271</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>629</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>630</v>
+      </c>
+      <c r="J83" t="s">
+        <v>631</v>
+      </c>
+      <c r="K83" t="s">
+        <v>632</v>
+      </c>
+      <c r="L83" t="s">
+        <v>633</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>634</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>635</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>636</v>
+      </c>
+      <c r="J84" t="s">
+        <v>637</v>
+      </c>
+      <c r="K84" t="s">
+        <v>638</v>
+      </c>
+      <c r="L84" t="s">
+        <v>639</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>640</v>
+      </c>
+      <c r="O84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>641</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>642</v>
+      </c>
+      <c r="J85" t="s">
+        <v>643</v>
+      </c>
+      <c r="K85" t="s">
+        <v>644</v>
+      </c>
+      <c r="L85" t="s">
+        <v>645</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>640</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>647</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>648</v>
+      </c>
+      <c r="J86" t="s">
+        <v>649</v>
+      </c>
+      <c r="K86" t="s">
+        <v>650</v>
+      </c>
+      <c r="L86" t="s">
+        <v>651</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>634</v>
+      </c>
+      <c r="O86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>653</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>654</v>
+      </c>
+      <c r="J87" t="s">
+        <v>655</v>
+      </c>
+      <c r="K87" t="s">
+        <v>656</v>
+      </c>
+      <c r="L87" t="s">
+        <v>657</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>658</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>659</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>660</v>
+      </c>
+      <c r="J88" t="s">
+        <v>661</v>
+      </c>
+      <c r="K88" t="s">
+        <v>662</v>
+      </c>
+      <c r="L88" t="s">
+        <v>663</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>664</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>665</v>
+      </c>
+      <c r="X88" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>667</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>668</v>
+      </c>
+      <c r="J89" t="s">
+        <v>669</v>
+      </c>
+      <c r="K89" t="s">
+        <v>670</v>
+      </c>
+      <c r="L89" t="s">
+        <v>671</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>672</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>673</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>674</v>
+      </c>
+      <c r="J90" t="s">
+        <v>675</v>
+      </c>
+      <c r="K90" t="s">
+        <v>676</v>
+      </c>
+      <c r="L90" t="s">
+        <v>677</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>678</v>
+      </c>
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+      <c r="K91" t="s">
+        <v>682</v>
+      </c>
+      <c r="L91" t="s">
+        <v>683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>684</v>
+      </c>
+      <c r="O91" t="s">
+        <v>89</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>685</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>686</v>
+      </c>
+      <c r="J92" t="s">
+        <v>687</v>
+      </c>
+      <c r="K92" t="s">
+        <v>688</v>
+      </c>
+      <c r="L92" t="s">
+        <v>689</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>690</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>691</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>692</v>
+      </c>
+      <c r="J93" t="s">
+        <v>693</v>
+      </c>
+      <c r="K93" t="s">
+        <v>694</v>
+      </c>
+      <c r="L93" t="s">
+        <v>695</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>690</v>
+      </c>
+      <c r="O93" t="s">
+        <v>271</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>696</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>697</v>
+      </c>
+      <c r="J94" t="s">
+        <v>698</v>
+      </c>
+      <c r="K94" t="s">
+        <v>699</v>
+      </c>
+      <c r="L94" t="s">
+        <v>700</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>701</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>703</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>704</v>
+      </c>
+      <c r="J95" t="s">
+        <v>705</v>
+      </c>
+      <c r="K95" t="s">
+        <v>706</v>
+      </c>
+      <c r="L95" t="s">
+        <v>707</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>708</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>56207</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>710</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>711</v>
+      </c>
+      <c r="J96" t="s">
+        <v>712</v>
+      </c>
+      <c r="K96" t="s">
+        <v>713</v>
+      </c>
+      <c r="L96" t="s">
+        <v>714</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
